--- a/01_Dimension 1-10/01_External Micrometer/01_External Micrometer 0-25 mm..xlsx
+++ b/01_Dimension 1-10/01_External Micrometer/01_External Micrometer 0-25 mm..xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\proecho\01_Dimension 1-10\01_External Micrometer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\evgenis\01_Dimension 1-10\01_External Micrometer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="11" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="Result" sheetId="10" r:id="rId4"/>
     <sheet name="Uncertainty Budget 0 to 25mm" sheetId="1" r:id="rId5"/>
     <sheet name="Uncert of STD" sheetId="3" r:id="rId6"/>
-    <sheet name="Configuration" sheetId="15" r:id="rId7"/>
-    <sheet name="$$^^$$" sheetId="16" r:id="rId8"/>
+    <sheet name="$$^^$$" sheetId="16" r:id="rId7"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
@@ -43,7 +43,6 @@
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
-    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="AAA">[1]Eq.List!$A$2:$I$188</definedName>
@@ -622,7 +621,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="310">
   <si>
     <t>Nominal Value</t>
   </si>
@@ -1838,49 +1837,6 @@
     <t>micrometer</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;sheets&gt;
-  &lt;sheet name="Data"&gt;
-    &lt;visible&gt;true&lt;/visible&gt;
-    &lt;writeable-ranges&gt;
-      &lt;writeable-range&gt;Q2:T2&lt;/writeable-range&gt;
-      &lt;writeable-range&gt;Z2:AC2&lt;/writeable-range&gt;
-      &lt;writeable-range&gt;S3:T3&lt;/writeable-range&gt;
-      &lt;writeable-range&gt;V3:W3&lt;/writeable-range&gt;
-      &lt;writeable-range&gt;P8:Q8&lt;/writeable-range&gt;
-      &lt;writeable-range&gt;H11:P11&lt;/writeable-range&gt;
-      &lt;writeable-range&gt;U11:AD11&lt;/writeable-range&gt;
-      &lt;writeable-range&gt;H23:M26&lt;/writeable-range&gt;
-      &lt;writeable-range&gt;F42:Q52&lt;/writeable-range&gt;
-      &lt;writeable-range&gt;H32:R34&lt;/writeable-range&gt;
-      &lt;writeable-range&gt;G55&lt;/writeable-range&gt;
-    &lt;/writeable-ranges&gt;
-  &lt;/sheet&gt;
-  &lt;sheet name="Certificate"&gt;
-    &lt;visible&gt;true&lt;/visible&gt;
-  &lt;/sheet&gt;
-  &lt;sheet name="Report"&gt;
-    &lt;visible&gt;true&lt;/visible&gt;
-  &lt;/sheet&gt;
-  &lt;sheet name="Result"&gt;
-    &lt;visible&gt;true&lt;/visible&gt;
-  &lt;/sheet&gt;
-  &lt;sheet name="Uncertainty Budget 0 to 25mm"&gt;
-    &lt;visible&gt;false&lt;/visible&gt;
-  &lt;/sheet&gt;
-  &lt;sheet name="Uncert of STD"&gt;
-    &lt;visible&gt;false&lt;/visible&gt;
-  &lt;/sheet&gt;
-  &lt;sheet name="Configuration"&gt;
-    &lt;visible&gt;false&lt;/visible&gt;
-  &lt;/sheet&gt;
-  &lt;sheet name="$$^^$$"&gt;
-    &lt;visible&gt;true&lt;/visible&gt;
-  &lt;/sheet&gt;
-&lt;/sheets&gt;
-</t>
-  </si>
-  <si>
     <t>Temp &amp; Humidity :</t>
   </si>
 </sst>
@@ -1911,7 +1867,7 @@
     <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="183" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="88">
+  <fonts count="87">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2454,13 +2410,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3212,7 +3161,7 @@
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="698">
+  <cellXfs count="682">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4441,22 +4390,22 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="53" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="53" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="53" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="15" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4476,15 +4425,6 @@
     </xf>
     <xf numFmtId="173" fontId="15" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4543,15 +4483,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4576,24 +4507,6 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4642,15 +4555,6 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4870,6 +4774,18 @@
     <xf numFmtId="179" fontId="61" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4922,18 +4838,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -5165,9 +5069,6 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -35550,8 +35451,8 @@
   </sheetPr>
   <dimension ref="B1:AP58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11:AD11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42:T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="18.75" customHeight="1"/>
@@ -35942,38 +35843,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:42" ht="22.5" customHeight="1">
-      <c r="B1" s="545" t="s">
+      <c r="B1" s="530" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="545"/>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
-      <c r="K1" s="545"/>
-      <c r="L1" s="545"/>
+      <c r="C1" s="530"/>
+      <c r="D1" s="530"/>
+      <c r="E1" s="530"/>
+      <c r="F1" s="530"/>
+      <c r="G1" s="530"/>
+      <c r="H1" s="530"/>
+      <c r="I1" s="530"/>
+      <c r="J1" s="530"/>
+      <c r="K1" s="530"/>
+      <c r="L1" s="530"/>
       <c r="M1" s="163" t="s">
         <v>81</v>
       </c>
       <c r="N1" s="163"/>
       <c r="O1" s="163"/>
       <c r="P1" s="163"/>
-      <c r="R1" s="543" t="s">
+      <c r="R1" s="528" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="543"/>
-      <c r="T1" s="543"/>
-      <c r="U1" s="543"/>
-      <c r="V1" s="543"/>
-      <c r="W1" s="543"/>
+      <c r="S1" s="528"/>
+      <c r="T1" s="528"/>
+      <c r="U1" s="528"/>
+      <c r="V1" s="528"/>
+      <c r="W1" s="528"/>
       <c r="X1" s="164"/>
-      <c r="AB1" s="504" t="s">
+      <c r="AB1" s="489" t="s">
         <v>112</v>
       </c>
-      <c r="AC1" s="504"/>
+      <c r="AC1" s="489"/>
       <c r="AD1" s="359">
         <v>1</v>
       </c>
@@ -35988,41 +35889,41 @@
       <c r="AI1" s="170"/>
     </row>
     <row r="2" spans="2:42" ht="22.5" customHeight="1">
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
-      <c r="L2" s="545"/>
+      <c r="B2" s="530"/>
+      <c r="C2" s="530"/>
+      <c r="D2" s="530"/>
+      <c r="E2" s="530"/>
+      <c r="F2" s="530"/>
+      <c r="G2" s="530"/>
+      <c r="H2" s="530"/>
+      <c r="I2" s="530"/>
+      <c r="J2" s="530"/>
+      <c r="K2" s="530"/>
+      <c r="L2" s="530"/>
       <c r="M2" s="164" t="s">
         <v>83</v>
       </c>
       <c r="N2" s="163"/>
       <c r="O2" s="164"/>
       <c r="P2" s="163"/>
-      <c r="Q2" s="544">
+      <c r="Q2" s="529">
         <v>42370</v>
       </c>
-      <c r="R2" s="544"/>
-      <c r="S2" s="544"/>
-      <c r="T2" s="544"/>
+      <c r="R2" s="529"/>
+      <c r="S2" s="529"/>
+      <c r="T2" s="529"/>
       <c r="U2" s="164" t="s">
         <v>84</v>
       </c>
       <c r="W2" s="163"/>
       <c r="X2" s="167"/>
       <c r="Y2" s="167"/>
-      <c r="Z2" s="544">
+      <c r="Z2" s="529">
         <v>42371</v>
       </c>
-      <c r="AA2" s="544"/>
-      <c r="AB2" s="544"/>
-      <c r="AC2" s="544"/>
+      <c r="AA2" s="529"/>
+      <c r="AB2" s="529"/>
+      <c r="AC2" s="529"/>
       <c r="AD2" s="353"/>
       <c r="AE2" s="167"/>
       <c r="AF2" s="165"/>
@@ -36032,37 +35933,37 @@
       <c r="AK2" s="20"/>
     </row>
     <row r="3" spans="2:42" ht="22.5" customHeight="1">
-      <c r="B3" s="546" t="s">
+      <c r="B3" s="531" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="546"/>
-      <c r="D3" s="546"/>
-      <c r="E3" s="546"/>
-      <c r="F3" s="546"/>
-      <c r="G3" s="546"/>
-      <c r="H3" s="546"/>
-      <c r="I3" s="546"/>
-      <c r="J3" s="546"/>
-      <c r="K3" s="546"/>
-      <c r="L3" s="546"/>
+      <c r="C3" s="531"/>
+      <c r="D3" s="531"/>
+      <c r="E3" s="531"/>
+      <c r="F3" s="531"/>
+      <c r="G3" s="531"/>
+      <c r="H3" s="531"/>
+      <c r="I3" s="531"/>
+      <c r="J3" s="531"/>
+      <c r="K3" s="531"/>
+      <c r="L3" s="531"/>
       <c r="M3" s="163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N3" s="163"/>
       <c r="O3" s="163"/>
       <c r="P3" s="163"/>
       <c r="Q3" s="163"/>
-      <c r="S3" s="553">
+      <c r="S3" s="538">
         <v>20</v>
       </c>
-      <c r="T3" s="553"/>
+      <c r="T3" s="538"/>
       <c r="U3" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="552">
+      <c r="V3" s="537">
         <v>50</v>
       </c>
-      <c r="W3" s="552"/>
+      <c r="W3" s="537"/>
       <c r="X3" s="169" t="s">
         <v>87</v>
       </c>
@@ -36075,19 +35976,19 @@
       <c r="AE3" s="163"/>
     </row>
     <row r="4" spans="2:42" ht="22.5" customHeight="1">
-      <c r="B4" s="547" t="s">
+      <c r="B4" s="532" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="547"/>
-      <c r="D4" s="547"/>
-      <c r="E4" s="547"/>
-      <c r="F4" s="547"/>
-      <c r="G4" s="547"/>
-      <c r="H4" s="547"/>
-      <c r="I4" s="547"/>
-      <c r="J4" s="547"/>
-      <c r="K4" s="547"/>
-      <c r="L4" s="547"/>
+      <c r="C4" s="532"/>
+      <c r="D4" s="532"/>
+      <c r="E4" s="532"/>
+      <c r="F4" s="532"/>
+      <c r="G4" s="532"/>
+      <c r="H4" s="532"/>
+      <c r="I4" s="532"/>
+      <c r="J4" s="532"/>
+      <c r="K4" s="532"/>
+      <c r="L4" s="532"/>
       <c r="M4" s="163" t="s">
         <v>59</v>
       </c>
@@ -36127,32 +36028,32 @@
       <c r="D5" s="158"/>
       <c r="E5" s="357"/>
       <c r="F5" s="357"/>
-      <c r="G5" s="548" t="s">
+      <c r="G5" s="533" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="548"/>
-      <c r="I5" s="548"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="548"/>
-      <c r="L5" s="548"/>
-      <c r="M5" s="548"/>
-      <c r="N5" s="548"/>
-      <c r="O5" s="548"/>
-      <c r="P5" s="548"/>
-      <c r="Q5" s="548"/>
-      <c r="R5" s="548"/>
-      <c r="S5" s="548"/>
-      <c r="T5" s="548"/>
-      <c r="U5" s="548"/>
-      <c r="V5" s="548"/>
-      <c r="W5" s="548"/>
-      <c r="X5" s="548"/>
-      <c r="Y5" s="548"/>
-      <c r="Z5" s="548"/>
-      <c r="AA5" s="548"/>
-      <c r="AB5" s="548"/>
-      <c r="AC5" s="548"/>
-      <c r="AD5" s="548"/>
+      <c r="H5" s="533"/>
+      <c r="I5" s="533"/>
+      <c r="J5" s="533"/>
+      <c r="K5" s="533"/>
+      <c r="L5" s="533"/>
+      <c r="M5" s="533"/>
+      <c r="N5" s="533"/>
+      <c r="O5" s="533"/>
+      <c r="P5" s="533"/>
+      <c r="Q5" s="533"/>
+      <c r="R5" s="533"/>
+      <c r="S5" s="533"/>
+      <c r="T5" s="533"/>
+      <c r="U5" s="533"/>
+      <c r="V5" s="533"/>
+      <c r="W5" s="533"/>
+      <c r="X5" s="533"/>
+      <c r="Y5" s="533"/>
+      <c r="Z5" s="533"/>
+      <c r="AA5" s="533"/>
+      <c r="AB5" s="533"/>
+      <c r="AC5" s="533"/>
+      <c r="AD5" s="533"/>
       <c r="AE5" s="157"/>
       <c r="AK5" s="20"/>
     </row>
@@ -36164,63 +36065,63 @@
       <c r="D6" s="158"/>
       <c r="E6" s="357"/>
       <c r="F6" s="357"/>
-      <c r="G6" s="548" t="s">
+      <c r="G6" s="533" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="548"/>
-      <c r="I6" s="548"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="548"/>
-      <c r="L6" s="548"/>
-      <c r="M6" s="548"/>
-      <c r="N6" s="548"/>
+      <c r="H6" s="533"/>
+      <c r="I6" s="533"/>
+      <c r="J6" s="533"/>
+      <c r="K6" s="533"/>
+      <c r="L6" s="533"/>
+      <c r="M6" s="533"/>
+      <c r="N6" s="533"/>
       <c r="O6" s="333" t="s">
         <v>91</v>
       </c>
       <c r="P6" s="172"/>
       <c r="R6" s="333"/>
-      <c r="S6" s="549" t="s">
+      <c r="S6" s="534" t="s">
         <v>107</v>
       </c>
-      <c r="T6" s="549"/>
-      <c r="U6" s="549"/>
-      <c r="V6" s="549"/>
-      <c r="W6" s="549"/>
+      <c r="T6" s="534"/>
+      <c r="U6" s="534"/>
+      <c r="V6" s="534"/>
+      <c r="W6" s="534"/>
       <c r="X6" s="172" t="s">
         <v>61</v>
       </c>
       <c r="Y6" s="172"/>
-      <c r="Z6" s="550"/>
-      <c r="AA6" s="550"/>
-      <c r="AB6" s="550"/>
-      <c r="AC6" s="550"/>
-      <c r="AD6" s="550"/>
+      <c r="Z6" s="535"/>
+      <c r="AA6" s="535"/>
+      <c r="AB6" s="535"/>
+      <c r="AC6" s="535"/>
+      <c r="AD6" s="535"/>
       <c r="AE6" s="157"/>
       <c r="AI6" s="180"/>
       <c r="AJ6" s="180"/>
       <c r="AK6" s="20"/>
     </row>
     <row r="7" spans="2:42" s="170" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B7" s="542" t="s">
+      <c r="B7" s="527" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="542"/>
-      <c r="D7" s="542"/>
-      <c r="E7" s="551" t="s">
+      <c r="C7" s="527"/>
+      <c r="D7" s="527"/>
+      <c r="E7" s="536" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="551"/>
-      <c r="G7" s="551"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="551"/>
-      <c r="J7" s="542" t="s">
+      <c r="F7" s="536"/>
+      <c r="G7" s="536"/>
+      <c r="H7" s="536"/>
+      <c r="I7" s="536"/>
+      <c r="J7" s="527" t="s">
         <v>154</v>
       </c>
-      <c r="K7" s="542"/>
-      <c r="L7" s="551"/>
-      <c r="M7" s="551"/>
-      <c r="N7" s="551"/>
-      <c r="O7" s="551"/>
+      <c r="K7" s="527"/>
+      <c r="L7" s="536"/>
+      <c r="M7" s="536"/>
+      <c r="N7" s="536"/>
+      <c r="O7" s="536"/>
       <c r="P7" s="354"/>
       <c r="Q7" s="354"/>
       <c r="R7" s="354"/>
@@ -36249,31 +36150,31 @@
       </c>
       <c r="C8" s="157"/>
       <c r="D8" s="158"/>
-      <c r="E8" s="526">
+      <c r="E8" s="511">
         <v>0</v>
       </c>
-      <c r="F8" s="526"/>
+      <c r="F8" s="511"/>
       <c r="G8" s="357" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="526">
+      <c r="H8" s="511">
         <v>25</v>
       </c>
-      <c r="I8" s="526"/>
+      <c r="I8" s="511"/>
       <c r="J8" s="358" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="247"/>
       <c r="L8" s="247"/>
-      <c r="M8" s="556" t="s">
+      <c r="M8" s="541" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="556"/>
-      <c r="O8" s="556"/>
-      <c r="P8" s="558">
+      <c r="N8" s="541"/>
+      <c r="O8" s="541"/>
+      <c r="P8" s="543">
         <v>1E-3</v>
       </c>
-      <c r="Q8" s="558"/>
+      <c r="Q8" s="543"/>
       <c r="R8" s="171" t="s">
         <v>10</v>
       </c>
@@ -36315,21 +36216,21 @@
       </c>
       <c r="N9" s="247"/>
       <c r="O9" s="175"/>
-      <c r="P9" s="548"/>
-      <c r="Q9" s="548"/>
-      <c r="R9" s="548"/>
-      <c r="S9" s="548"/>
-      <c r="T9" s="548"/>
-      <c r="U9" s="548"/>
-      <c r="V9" s="548"/>
-      <c r="W9" s="548"/>
-      <c r="X9" s="548"/>
-      <c r="Y9" s="548"/>
-      <c r="Z9" s="548"/>
-      <c r="AA9" s="548"/>
-      <c r="AB9" s="548"/>
-      <c r="AC9" s="548"/>
-      <c r="AD9" s="548"/>
+      <c r="P9" s="533"/>
+      <c r="Q9" s="533"/>
+      <c r="R9" s="533"/>
+      <c r="S9" s="533"/>
+      <c r="T9" s="533"/>
+      <c r="U9" s="533"/>
+      <c r="V9" s="533"/>
+      <c r="W9" s="533"/>
+      <c r="X9" s="533"/>
+      <c r="Y9" s="533"/>
+      <c r="Z9" s="533"/>
+      <c r="AA9" s="533"/>
+      <c r="AB9" s="533"/>
+      <c r="AC9" s="533"/>
+      <c r="AD9" s="533"/>
       <c r="AE9" s="157"/>
       <c r="AF9" s="173"/>
       <c r="AG9" s="173"/>
@@ -36383,31 +36284,31 @@
       <c r="E11" s="174"/>
       <c r="F11" s="174"/>
       <c r="G11" s="174"/>
-      <c r="H11" s="557"/>
-      <c r="I11" s="557"/>
-      <c r="J11" s="557"/>
-      <c r="K11" s="557"/>
-      <c r="L11" s="557"/>
-      <c r="M11" s="557"/>
-      <c r="N11" s="557"/>
-      <c r="O11" s="557"/>
-      <c r="P11" s="557"/>
+      <c r="H11" s="542"/>
+      <c r="I11" s="542"/>
+      <c r="J11" s="542"/>
+      <c r="K11" s="542"/>
+      <c r="L11" s="542"/>
+      <c r="M11" s="542"/>
+      <c r="N11" s="542"/>
+      <c r="O11" s="542"/>
+      <c r="P11" s="542"/>
       <c r="Q11" s="157"/>
       <c r="R11" s="171"/>
       <c r="S11" s="176" t="s">
         <v>99</v>
       </c>
       <c r="T11" s="176"/>
-      <c r="U11" s="563"/>
-      <c r="V11" s="563"/>
-      <c r="W11" s="563"/>
-      <c r="X11" s="563"/>
-      <c r="Y11" s="563"/>
-      <c r="Z11" s="563"/>
-      <c r="AA11" s="563"/>
-      <c r="AB11" s="563"/>
-      <c r="AC11" s="563"/>
-      <c r="AD11" s="563"/>
+      <c r="U11" s="548"/>
+      <c r="V11" s="548"/>
+      <c r="W11" s="548"/>
+      <c r="X11" s="548"/>
+      <c r="Y11" s="548"/>
+      <c r="Z11" s="548"/>
+      <c r="AA11" s="548"/>
+      <c r="AB11" s="548"/>
+      <c r="AC11" s="548"/>
+      <c r="AD11" s="548"/>
       <c r="AE11" s="157"/>
       <c r="AF11" s="177"/>
       <c r="AG11" s="177"/>
@@ -36442,10 +36343,10 @@
       <c r="I13" s="143"/>
       <c r="J13" s="143"/>
       <c r="K13" s="143"/>
-      <c r="L13" s="554"/>
-      <c r="M13" s="554"/>
-      <c r="N13" s="555"/>
-      <c r="O13" s="555"/>
+      <c r="L13" s="539"/>
+      <c r="M13" s="539"/>
+      <c r="N13" s="540"/>
+      <c r="O13" s="540"/>
       <c r="P13" s="188"/>
       <c r="Q13" s="188"/>
       <c r="R13" s="188"/>
@@ -36476,23 +36377,23 @@
     </row>
     <row r="14" spans="2:42" ht="19.5" customHeight="1">
       <c r="B14" s="154"/>
-      <c r="C14" s="529" t="s">
+      <c r="C14" s="514" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="529"/>
-      <c r="E14" s="529"/>
-      <c r="F14" s="529"/>
-      <c r="G14" s="529"/>
-      <c r="H14" s="529"/>
-      <c r="I14" s="529"/>
-      <c r="J14" s="529" t="s">
+      <c r="D14" s="514"/>
+      <c r="E14" s="514"/>
+      <c r="F14" s="514"/>
+      <c r="G14" s="514"/>
+      <c r="H14" s="514"/>
+      <c r="I14" s="514"/>
+      <c r="J14" s="514" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="529"/>
-      <c r="L14" s="529"/>
-      <c r="M14" s="529"/>
-      <c r="N14" s="529"/>
-      <c r="O14" s="529"/>
+      <c r="K14" s="514"/>
+      <c r="L14" s="514"/>
+      <c r="M14" s="514"/>
+      <c r="N14" s="514"/>
+      <c r="O14" s="514"/>
       <c r="P14" s="188"/>
       <c r="Q14" s="188"/>
       <c r="R14" s="188"/>
@@ -36523,23 +36424,23 @@
     </row>
     <row r="15" spans="2:42" ht="19.5" customHeight="1">
       <c r="B15" s="154"/>
-      <c r="C15" s="530" t="s">
+      <c r="C15" s="515" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="530"/>
-      <c r="E15" s="530"/>
-      <c r="F15" s="530"/>
-      <c r="G15" s="530"/>
-      <c r="H15" s="530"/>
-      <c r="I15" s="530"/>
-      <c r="J15" s="531">
+      <c r="D15" s="515"/>
+      <c r="E15" s="515"/>
+      <c r="F15" s="515"/>
+      <c r="G15" s="515"/>
+      <c r="H15" s="515"/>
+      <c r="I15" s="515"/>
+      <c r="J15" s="516">
         <v>0.3</v>
       </c>
-      <c r="K15" s="532"/>
-      <c r="L15" s="532"/>
-      <c r="M15" s="532"/>
-      <c r="N15" s="532"/>
-      <c r="O15" s="533"/>
+      <c r="K15" s="517"/>
+      <c r="L15" s="517"/>
+      <c r="M15" s="517"/>
+      <c r="N15" s="517"/>
+      <c r="O15" s="518"/>
       <c r="P15" s="188"/>
       <c r="Q15" s="188"/>
       <c r="R15" s="188"/>
@@ -36570,23 +36471,23 @@
     </row>
     <row r="16" spans="2:42" ht="19.5" customHeight="1">
       <c r="B16" s="154"/>
-      <c r="C16" s="534" t="s">
+      <c r="C16" s="519" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="534"/>
-      <c r="E16" s="534"/>
-      <c r="F16" s="534"/>
-      <c r="G16" s="534"/>
-      <c r="H16" s="534"/>
-      <c r="I16" s="534"/>
-      <c r="J16" s="535">
+      <c r="D16" s="519"/>
+      <c r="E16" s="519"/>
+      <c r="F16" s="519"/>
+      <c r="G16" s="519"/>
+      <c r="H16" s="519"/>
+      <c r="I16" s="519"/>
+      <c r="J16" s="520">
         <v>0</v>
       </c>
-      <c r="K16" s="536"/>
-      <c r="L16" s="536"/>
-      <c r="M16" s="536"/>
-      <c r="N16" s="536"/>
-      <c r="O16" s="537"/>
+      <c r="K16" s="521"/>
+      <c r="L16" s="521"/>
+      <c r="M16" s="521"/>
+      <c r="N16" s="521"/>
+      <c r="O16" s="522"/>
       <c r="P16" s="188"/>
       <c r="Q16" s="188"/>
       <c r="R16" s="188"/>
@@ -36738,33 +36639,33 @@
     </row>
     <row r="20" spans="2:39" ht="19.5" customHeight="1">
       <c r="B20" s="151"/>
-      <c r="C20" s="461" t="s">
+      <c r="C20" s="458" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="462"/>
-      <c r="E20" s="462"/>
-      <c r="F20" s="462"/>
-      <c r="G20" s="462"/>
-      <c r="H20" s="461" t="s">
+      <c r="D20" s="459"/>
+      <c r="E20" s="459"/>
+      <c r="F20" s="459"/>
+      <c r="G20" s="459"/>
+      <c r="H20" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="462"/>
-      <c r="J20" s="462"/>
-      <c r="K20" s="462"/>
-      <c r="L20" s="462"/>
-      <c r="M20" s="463"/>
-      <c r="N20" s="522" t="s">
+      <c r="I20" s="459"/>
+      <c r="J20" s="459"/>
+      <c r="K20" s="459"/>
+      <c r="L20" s="459"/>
+      <c r="M20" s="460"/>
+      <c r="N20" s="507" t="s">
         <v>150</v>
       </c>
-      <c r="O20" s="522"/>
-      <c r="P20" s="522"/>
-      <c r="Q20" s="522"/>
-      <c r="R20" s="522"/>
-      <c r="S20" s="461" t="s">
+      <c r="O20" s="507"/>
+      <c r="P20" s="507"/>
+      <c r="Q20" s="507"/>
+      <c r="R20" s="507"/>
+      <c r="S20" s="458" t="s">
         <v>69</v>
       </c>
-      <c r="T20" s="462"/>
-      <c r="U20" s="463"/>
+      <c r="T20" s="459"/>
+      <c r="U20" s="460"/>
       <c r="W20" s="223" t="s">
         <v>102</v>
       </c>
@@ -36778,29 +36679,29 @@
     </row>
     <row r="21" spans="2:39" ht="19.5" customHeight="1">
       <c r="B21" s="151"/>
-      <c r="C21" s="454" t="s">
+      <c r="C21" s="451" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="455"/>
-      <c r="E21" s="455"/>
-      <c r="F21" s="455"/>
-      <c r="G21" s="455"/>
-      <c r="H21" s="464" t="s">
+      <c r="D21" s="452"/>
+      <c r="E21" s="452"/>
+      <c r="F21" s="452"/>
+      <c r="G21" s="452"/>
+      <c r="H21" s="461" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="465"/>
-      <c r="J21" s="465"/>
-      <c r="K21" s="465"/>
-      <c r="L21" s="465"/>
-      <c r="M21" s="466"/>
-      <c r="N21" s="523"/>
-      <c r="O21" s="523"/>
-      <c r="P21" s="523"/>
-      <c r="Q21" s="523"/>
-      <c r="R21" s="523"/>
-      <c r="S21" s="454"/>
-      <c r="T21" s="455"/>
-      <c r="U21" s="467"/>
+      <c r="I21" s="462"/>
+      <c r="J21" s="462"/>
+      <c r="K21" s="462"/>
+      <c r="L21" s="462"/>
+      <c r="M21" s="463"/>
+      <c r="N21" s="508"/>
+      <c r="O21" s="508"/>
+      <c r="P21" s="508"/>
+      <c r="Q21" s="508"/>
+      <c r="R21" s="508"/>
+      <c r="S21" s="451"/>
+      <c r="T21" s="452"/>
+      <c r="U21" s="464"/>
       <c r="W21" s="223"/>
       <c r="X21" s="224"/>
       <c r="Y21" s="224"/>
@@ -36812,33 +36713,33 @@
     </row>
     <row r="22" spans="2:39" ht="19.5" customHeight="1">
       <c r="B22" s="151"/>
-      <c r="C22" s="464" t="s">
+      <c r="C22" s="461" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="465"/>
-      <c r="E22" s="465"/>
-      <c r="F22" s="465"/>
-      <c r="G22" s="465"/>
-      <c r="H22" s="450" t="s">
+      <c r="D22" s="462"/>
+      <c r="E22" s="462"/>
+      <c r="F22" s="462"/>
+      <c r="G22" s="462"/>
+      <c r="H22" s="447" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="487"/>
-      <c r="J22" s="488"/>
-      <c r="K22" s="461" t="s">
+      <c r="I22" s="475"/>
+      <c r="J22" s="476"/>
+      <c r="K22" s="458" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="462"/>
-      <c r="M22" s="463"/>
-      <c r="N22" s="568" t="s">
+      <c r="L22" s="459"/>
+      <c r="M22" s="460"/>
+      <c r="N22" s="553" t="s">
         <v>71</v>
       </c>
-      <c r="O22" s="568"/>
-      <c r="P22" s="568"/>
-      <c r="Q22" s="568"/>
-      <c r="R22" s="568"/>
-      <c r="S22" s="464"/>
-      <c r="T22" s="465"/>
-      <c r="U22" s="466"/>
+      <c r="O22" s="553"/>
+      <c r="P22" s="553"/>
+      <c r="Q22" s="553"/>
+      <c r="R22" s="553"/>
+      <c r="S22" s="461"/>
+      <c r="T22" s="462"/>
+      <c r="U22" s="463"/>
       <c r="W22" s="223" t="s">
         <v>72</v>
       </c>
@@ -36852,33 +36753,33 @@
     </row>
     <row r="23" spans="2:39" ht="19.5" customHeight="1">
       <c r="B23" s="151"/>
-      <c r="C23" s="539">
+      <c r="C23" s="524">
         <v>12</v>
       </c>
-      <c r="D23" s="505"/>
-      <c r="E23" s="505"/>
-      <c r="F23" s="505"/>
-      <c r="G23" s="506"/>
-      <c r="H23" s="471">
+      <c r="D23" s="490"/>
+      <c r="E23" s="490"/>
+      <c r="F23" s="490"/>
+      <c r="G23" s="491"/>
+      <c r="H23" s="465">
         <v>1</v>
       </c>
-      <c r="I23" s="472"/>
-      <c r="J23" s="473"/>
-      <c r="K23" s="471">
+      <c r="I23" s="466"/>
+      <c r="J23" s="467"/>
+      <c r="K23" s="465">
         <v>2</v>
       </c>
-      <c r="L23" s="472"/>
-      <c r="M23" s="473"/>
+      <c r="L23" s="466"/>
+      <c r="M23" s="467"/>
       <c r="N23" s="184"/>
       <c r="O23" s="327" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="559">
+      <c r="P23" s="544">
         <f>(H23+K23)*0.3</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="Q23" s="559"/>
-      <c r="R23" s="560"/>
+      <c r="Q23" s="544"/>
+      <c r="R23" s="545"/>
       <c r="S23" s="184"/>
       <c r="T23" s="352"/>
       <c r="U23" s="185"/>
@@ -36895,42 +36796,42 @@
     </row>
     <row r="24" spans="2:39" ht="19.5" customHeight="1">
       <c r="B24" s="151"/>
-      <c r="C24" s="540">
+      <c r="C24" s="525">
         <v>12.12</v>
       </c>
-      <c r="D24" s="456"/>
-      <c r="E24" s="456"/>
-      <c r="F24" s="456"/>
-      <c r="G24" s="457"/>
-      <c r="H24" s="474">
+      <c r="D24" s="453"/>
+      <c r="E24" s="453"/>
+      <c r="F24" s="453"/>
+      <c r="G24" s="454"/>
+      <c r="H24" s="468">
         <v>1</v>
       </c>
-      <c r="I24" s="475"/>
-      <c r="J24" s="476"/>
-      <c r="K24" s="474">
+      <c r="I24" s="469"/>
+      <c r="J24" s="470"/>
+      <c r="K24" s="468">
         <v>2</v>
       </c>
-      <c r="L24" s="475"/>
-      <c r="M24" s="476"/>
+      <c r="L24" s="469"/>
+      <c r="M24" s="470"/>
       <c r="N24" s="329"/>
       <c r="O24" s="330" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="561">
+      <c r="P24" s="546">
         <f>(H24+K24)*0.3</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="Q24" s="561"/>
-      <c r="R24" s="562"/>
-      <c r="S24" s="538" t="str">
+      <c r="Q24" s="546"/>
+      <c r="R24" s="547"/>
+      <c r="S24" s="523" t="str">
         <f>+O24</f>
         <v>≤</v>
       </c>
-      <c r="T24" s="566">
+      <c r="T24" s="551">
         <f>MAX(P23:P26)</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="U24" s="567"/>
+      <c r="U24" s="552"/>
       <c r="W24" s="223" t="s">
         <v>103</v>
       </c>
@@ -36944,36 +36845,36 @@
     </row>
     <row r="25" spans="2:39" ht="19.5" customHeight="1">
       <c r="B25" s="151"/>
-      <c r="C25" s="540">
+      <c r="C25" s="525">
         <v>12.25</v>
       </c>
-      <c r="D25" s="456"/>
-      <c r="E25" s="456"/>
-      <c r="F25" s="456"/>
-      <c r="G25" s="457"/>
-      <c r="H25" s="474">
+      <c r="D25" s="453"/>
+      <c r="E25" s="453"/>
+      <c r="F25" s="453"/>
+      <c r="G25" s="454"/>
+      <c r="H25" s="468">
         <v>1</v>
       </c>
-      <c r="I25" s="475"/>
-      <c r="J25" s="476"/>
-      <c r="K25" s="474">
+      <c r="I25" s="469"/>
+      <c r="J25" s="470"/>
+      <c r="K25" s="468">
         <v>2</v>
       </c>
-      <c r="L25" s="475"/>
-      <c r="M25" s="476"/>
+      <c r="L25" s="469"/>
+      <c r="M25" s="470"/>
       <c r="N25" s="329"/>
       <c r="O25" s="330" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="561">
+      <c r="P25" s="546">
         <f>(H25+K25)*0.3</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="Q25" s="561"/>
-      <c r="R25" s="562"/>
-      <c r="S25" s="538"/>
-      <c r="T25" s="566"/>
-      <c r="U25" s="567"/>
+      <c r="Q25" s="546"/>
+      <c r="R25" s="547"/>
+      <c r="S25" s="523"/>
+      <c r="T25" s="551"/>
+      <c r="U25" s="552"/>
       <c r="W25" s="223" t="s">
         <v>104</v>
       </c>
@@ -36987,33 +36888,33 @@
     </row>
     <row r="26" spans="2:39" ht="19.5" customHeight="1">
       <c r="B26" s="151"/>
-      <c r="C26" s="525">
+      <c r="C26" s="510">
         <v>12.37</v>
       </c>
-      <c r="D26" s="485"/>
-      <c r="E26" s="485"/>
-      <c r="F26" s="485"/>
-      <c r="G26" s="486"/>
-      <c r="H26" s="458">
+      <c r="D26" s="473"/>
+      <c r="E26" s="473"/>
+      <c r="F26" s="473"/>
+      <c r="G26" s="474"/>
+      <c r="H26" s="455">
         <v>1</v>
       </c>
-      <c r="I26" s="459"/>
-      <c r="J26" s="460"/>
-      <c r="K26" s="458">
+      <c r="I26" s="456"/>
+      <c r="J26" s="457"/>
+      <c r="K26" s="455">
         <v>2</v>
       </c>
-      <c r="L26" s="459"/>
-      <c r="M26" s="460"/>
+      <c r="L26" s="456"/>
+      <c r="M26" s="457"/>
       <c r="N26" s="186"/>
       <c r="O26" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="P26" s="564">
+      <c r="P26" s="549">
         <f>(H26+K26)*0.3</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="Q26" s="564"/>
-      <c r="R26" s="565"/>
+      <c r="Q26" s="549"/>
+      <c r="R26" s="550"/>
       <c r="S26" s="351"/>
       <c r="T26" s="250"/>
       <c r="U26" s="187"/>
@@ -37111,149 +37012,149 @@
     </row>
     <row r="29" spans="2:39" ht="19.5" customHeight="1">
       <c r="B29" s="151"/>
-      <c r="C29" s="461" t="s">
+      <c r="C29" s="458" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="462"/>
-      <c r="E29" s="462"/>
-      <c r="F29" s="462"/>
-      <c r="G29" s="462"/>
-      <c r="H29" s="461" t="s">
+      <c r="D29" s="459"/>
+      <c r="E29" s="459"/>
+      <c r="F29" s="459"/>
+      <c r="G29" s="459"/>
+      <c r="H29" s="458" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="462"/>
-      <c r="J29" s="462"/>
-      <c r="K29" s="462"/>
-      <c r="L29" s="463"/>
-      <c r="M29" s="461" t="s">
+      <c r="I29" s="459"/>
+      <c r="J29" s="459"/>
+      <c r="K29" s="459"/>
+      <c r="L29" s="460"/>
+      <c r="M29" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="N29" s="462"/>
-      <c r="O29" s="462"/>
-      <c r="P29" s="462"/>
-      <c r="Q29" s="462"/>
-      <c r="R29" s="463"/>
-      <c r="S29" s="522" t="s">
+      <c r="N29" s="459"/>
+      <c r="O29" s="459"/>
+      <c r="P29" s="459"/>
+      <c r="Q29" s="459"/>
+      <c r="R29" s="460"/>
+      <c r="S29" s="507" t="s">
         <v>150</v>
       </c>
-      <c r="T29" s="522"/>
-      <c r="U29" s="522"/>
-      <c r="V29" s="522"/>
-      <c r="W29" s="522"/>
-      <c r="X29" s="450" t="s">
+      <c r="T29" s="507"/>
+      <c r="U29" s="507"/>
+      <c r="V29" s="507"/>
+      <c r="W29" s="507"/>
+      <c r="X29" s="447" t="s">
         <v>69</v>
       </c>
-      <c r="Y29" s="451"/>
-      <c r="Z29" s="451"/>
-      <c r="AA29" s="451"/>
-      <c r="AB29" s="452"/>
+      <c r="Y29" s="448"/>
+      <c r="Z29" s="448"/>
+      <c r="AA29" s="448"/>
+      <c r="AB29" s="449"/>
     </row>
     <row r="30" spans="2:39" ht="19.5" customHeight="1">
       <c r="B30" s="151"/>
-      <c r="C30" s="454" t="s">
+      <c r="C30" s="451" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="455"/>
-      <c r="E30" s="455"/>
-      <c r="F30" s="455"/>
-      <c r="G30" s="455"/>
-      <c r="H30" s="454" t="s">
+      <c r="D30" s="452"/>
+      <c r="E30" s="452"/>
+      <c r="F30" s="452"/>
+      <c r="G30" s="452"/>
+      <c r="H30" s="451" t="s">
         <v>147</v>
       </c>
-      <c r="I30" s="455"/>
-      <c r="J30" s="455"/>
-      <c r="K30" s="455"/>
-      <c r="L30" s="467"/>
-      <c r="M30" s="464" t="s">
+      <c r="I30" s="452"/>
+      <c r="J30" s="452"/>
+      <c r="K30" s="452"/>
+      <c r="L30" s="464"/>
+      <c r="M30" s="461" t="s">
         <v>149</v>
       </c>
-      <c r="N30" s="465"/>
-      <c r="O30" s="465"/>
-      <c r="P30" s="465"/>
-      <c r="Q30" s="465"/>
-      <c r="R30" s="466"/>
-      <c r="S30" s="523"/>
-      <c r="T30" s="523"/>
-      <c r="U30" s="523"/>
-      <c r="V30" s="523"/>
-      <c r="W30" s="523"/>
-      <c r="X30" s="453"/>
-      <c r="Y30" s="451"/>
-      <c r="Z30" s="451"/>
-      <c r="AA30" s="451"/>
-      <c r="AB30" s="452"/>
+      <c r="N30" s="462"/>
+      <c r="O30" s="462"/>
+      <c r="P30" s="462"/>
+      <c r="Q30" s="462"/>
+      <c r="R30" s="463"/>
+      <c r="S30" s="508"/>
+      <c r="T30" s="508"/>
+      <c r="U30" s="508"/>
+      <c r="V30" s="508"/>
+      <c r="W30" s="508"/>
+      <c r="X30" s="450"/>
+      <c r="Y30" s="448"/>
+      <c r="Z30" s="448"/>
+      <c r="AA30" s="448"/>
+      <c r="AB30" s="449"/>
     </row>
     <row r="31" spans="2:39" ht="19.5" customHeight="1">
       <c r="B31" s="151"/>
-      <c r="C31" s="464" t="s">
+      <c r="C31" s="461" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="465"/>
-      <c r="E31" s="465"/>
-      <c r="F31" s="465"/>
-      <c r="G31" s="465"/>
-      <c r="H31" s="464" t="s">
+      <c r="D31" s="462"/>
+      <c r="E31" s="462"/>
+      <c r="F31" s="462"/>
+      <c r="G31" s="462"/>
+      <c r="H31" s="461" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="465"/>
-      <c r="J31" s="465"/>
-      <c r="K31" s="465"/>
-      <c r="L31" s="466"/>
-      <c r="M31" s="450" t="s">
+      <c r="I31" s="462"/>
+      <c r="J31" s="462"/>
+      <c r="K31" s="462"/>
+      <c r="L31" s="463"/>
+      <c r="M31" s="447" t="s">
         <v>151</v>
       </c>
-      <c r="N31" s="487"/>
-      <c r="O31" s="488"/>
-      <c r="P31" s="461" t="s">
+      <c r="N31" s="475"/>
+      <c r="O31" s="476"/>
+      <c r="P31" s="458" t="s">
         <v>145</v>
       </c>
-      <c r="Q31" s="462"/>
-      <c r="R31" s="463"/>
-      <c r="S31" s="464" t="s">
+      <c r="Q31" s="459"/>
+      <c r="R31" s="460"/>
+      <c r="S31" s="461" t="s">
         <v>71</v>
       </c>
-      <c r="T31" s="465"/>
-      <c r="U31" s="465"/>
-      <c r="V31" s="485"/>
-      <c r="W31" s="486"/>
-      <c r="X31" s="453"/>
-      <c r="Y31" s="451"/>
-      <c r="Z31" s="451"/>
-      <c r="AA31" s="451"/>
-      <c r="AB31" s="452"/>
+      <c r="T31" s="462"/>
+      <c r="U31" s="462"/>
+      <c r="V31" s="473"/>
+      <c r="W31" s="474"/>
+      <c r="X31" s="450"/>
+      <c r="Y31" s="448"/>
+      <c r="Z31" s="448"/>
+      <c r="AA31" s="448"/>
+      <c r="AB31" s="449"/>
     </row>
     <row r="32" spans="2:39" ht="19.5" customHeight="1">
       <c r="B32" s="149"/>
-      <c r="C32" s="477" t="s">
+      <c r="C32" s="471" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="477"/>
-      <c r="E32" s="477"/>
-      <c r="F32" s="477"/>
-      <c r="G32" s="477"/>
-      <c r="H32" s="461"/>
-      <c r="I32" s="462"/>
-      <c r="J32" s="462"/>
-      <c r="K32" s="462"/>
-      <c r="L32" s="463"/>
-      <c r="M32" s="471">
+      <c r="D32" s="471"/>
+      <c r="E32" s="471"/>
+      <c r="F32" s="471"/>
+      <c r="G32" s="471"/>
+      <c r="H32" s="458"/>
+      <c r="I32" s="459"/>
+      <c r="J32" s="459"/>
+      <c r="K32" s="459"/>
+      <c r="L32" s="460"/>
+      <c r="M32" s="465">
         <v>1</v>
       </c>
-      <c r="N32" s="472"/>
-      <c r="O32" s="473"/>
-      <c r="P32" s="471">
+      <c r="N32" s="466"/>
+      <c r="O32" s="467"/>
+      <c r="P32" s="465">
         <v>2</v>
       </c>
-      <c r="Q32" s="472"/>
-      <c r="R32" s="473"/>
-      <c r="S32" s="461">
+      <c r="Q32" s="466"/>
+      <c r="R32" s="467"/>
+      <c r="S32" s="458">
         <f>(M32+P32)*0.3</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="T32" s="462"/>
-      <c r="U32" s="462"/>
-      <c r="V32" s="505"/>
-      <c r="W32" s="506"/>
+      <c r="T32" s="459"/>
+      <c r="U32" s="459"/>
+      <c r="V32" s="490"/>
+      <c r="W32" s="491"/>
       <c r="X32" s="199"/>
       <c r="Y32" s="200"/>
       <c r="Z32" s="200"/>
@@ -37262,36 +37163,36 @@
     </row>
     <row r="33" spans="2:39" ht="19.5" customHeight="1">
       <c r="B33" s="149"/>
-      <c r="C33" s="477" t="s">
+      <c r="C33" s="471" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="477"/>
-      <c r="E33" s="477"/>
-      <c r="F33" s="477"/>
-      <c r="G33" s="477"/>
-      <c r="H33" s="454"/>
-      <c r="I33" s="455"/>
-      <c r="J33" s="455"/>
-      <c r="K33" s="455"/>
-      <c r="L33" s="467"/>
-      <c r="M33" s="474">
+      <c r="D33" s="471"/>
+      <c r="E33" s="471"/>
+      <c r="F33" s="471"/>
+      <c r="G33" s="471"/>
+      <c r="H33" s="451"/>
+      <c r="I33" s="452"/>
+      <c r="J33" s="452"/>
+      <c r="K33" s="452"/>
+      <c r="L33" s="464"/>
+      <c r="M33" s="468">
         <v>1</v>
       </c>
-      <c r="N33" s="475"/>
-      <c r="O33" s="476"/>
-      <c r="P33" s="474">
+      <c r="N33" s="469"/>
+      <c r="O33" s="470"/>
+      <c r="P33" s="468">
         <v>2</v>
       </c>
-      <c r="Q33" s="475"/>
-      <c r="R33" s="476"/>
-      <c r="S33" s="454">
+      <c r="Q33" s="469"/>
+      <c r="R33" s="470"/>
+      <c r="S33" s="451">
         <f>(M33+P33)*0.3</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="T33" s="455"/>
-      <c r="U33" s="455"/>
-      <c r="V33" s="456"/>
-      <c r="W33" s="457"/>
+      <c r="T33" s="452"/>
+      <c r="U33" s="452"/>
+      <c r="V33" s="453"/>
+      <c r="W33" s="454"/>
       <c r="X33" s="202"/>
       <c r="Y33" s="331" t="s">
         <v>54</v>
@@ -37305,36 +37206,36 @@
     </row>
     <row r="34" spans="2:39" ht="19.5" customHeight="1">
       <c r="B34" s="149"/>
-      <c r="C34" s="524" t="s">
+      <c r="C34" s="509" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="524"/>
-      <c r="E34" s="524"/>
-      <c r="F34" s="524"/>
-      <c r="G34" s="524"/>
-      <c r="H34" s="464"/>
-      <c r="I34" s="465"/>
-      <c r="J34" s="465"/>
-      <c r="K34" s="465"/>
-      <c r="L34" s="466"/>
-      <c r="M34" s="458">
+      <c r="D34" s="509"/>
+      <c r="E34" s="509"/>
+      <c r="F34" s="509"/>
+      <c r="G34" s="509"/>
+      <c r="H34" s="461"/>
+      <c r="I34" s="462"/>
+      <c r="J34" s="462"/>
+      <c r="K34" s="462"/>
+      <c r="L34" s="463"/>
+      <c r="M34" s="455">
         <v>1</v>
       </c>
-      <c r="N34" s="459"/>
-      <c r="O34" s="460"/>
-      <c r="P34" s="458">
+      <c r="N34" s="456"/>
+      <c r="O34" s="457"/>
+      <c r="P34" s="455">
         <v>2</v>
       </c>
-      <c r="Q34" s="459"/>
-      <c r="R34" s="460"/>
-      <c r="S34" s="464">
+      <c r="Q34" s="456"/>
+      <c r="R34" s="457"/>
+      <c r="S34" s="461">
         <f>(M34+P34)*0.3</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="T34" s="465"/>
-      <c r="U34" s="465"/>
-      <c r="V34" s="485"/>
-      <c r="W34" s="486"/>
+      <c r="T34" s="462"/>
+      <c r="U34" s="462"/>
+      <c r="V34" s="473"/>
+      <c r="W34" s="474"/>
       <c r="X34" s="205"/>
       <c r="Y34" s="206"/>
       <c r="Z34" s="207"/>
@@ -37470,10 +37371,10 @@
       <c r="V38" s="212"/>
       <c r="W38" s="212"/>
       <c r="X38" s="212"/>
-      <c r="Y38" s="504" t="s">
+      <c r="Y38" s="489" t="s">
         <v>112</v>
       </c>
-      <c r="Z38" s="504"/>
+      <c r="Z38" s="489"/>
       <c r="AA38" s="225">
         <v>2</v>
       </c>
@@ -37538,100 +37439,100 @@
     </row>
     <row r="40" spans="2:39" ht="21" customHeight="1">
       <c r="B40" s="159"/>
-      <c r="C40" s="541" t="s">
+      <c r="C40" s="526" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="462"/>
-      <c r="E40" s="462"/>
-      <c r="F40" s="450" t="s">
+      <c r="D40" s="459"/>
+      <c r="E40" s="459"/>
+      <c r="F40" s="447" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="487"/>
-      <c r="H40" s="487"/>
-      <c r="I40" s="487"/>
-      <c r="J40" s="487"/>
-      <c r="K40" s="487"/>
-      <c r="L40" s="487"/>
-      <c r="M40" s="487"/>
-      <c r="N40" s="487"/>
-      <c r="O40" s="487"/>
-      <c r="P40" s="487"/>
-      <c r="Q40" s="488"/>
-      <c r="R40" s="461" t="s">
+      <c r="G40" s="475"/>
+      <c r="H40" s="475"/>
+      <c r="I40" s="475"/>
+      <c r="J40" s="475"/>
+      <c r="K40" s="475"/>
+      <c r="L40" s="475"/>
+      <c r="M40" s="475"/>
+      <c r="N40" s="475"/>
+      <c r="O40" s="475"/>
+      <c r="P40" s="475"/>
+      <c r="Q40" s="476"/>
+      <c r="R40" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="S40" s="462"/>
-      <c r="T40" s="463"/>
-      <c r="U40" s="489" t="s">
+      <c r="S40" s="459"/>
+      <c r="T40" s="460"/>
+      <c r="U40" s="477" t="s">
         <v>2</v>
       </c>
-      <c r="V40" s="490"/>
-      <c r="W40" s="490"/>
-      <c r="X40" s="491"/>
-      <c r="Y40" s="511" t="s">
+      <c r="V40" s="478"/>
+      <c r="W40" s="478"/>
+      <c r="X40" s="479"/>
+      <c r="Y40" s="496" t="s">
         <v>22</v>
       </c>
-      <c r="Z40" s="512"/>
-      <c r="AA40" s="513"/>
+      <c r="Z40" s="497"/>
+      <c r="AA40" s="498"/>
       <c r="AH40" s="159"/>
-      <c r="AI40" s="528"/>
-      <c r="AJ40" s="528"/>
-      <c r="AK40" s="528"/>
-      <c r="AL40" s="528"/>
+      <c r="AI40" s="513"/>
+      <c r="AJ40" s="513"/>
+      <c r="AK40" s="513"/>
+      <c r="AL40" s="513"/>
     </row>
     <row r="41" spans="2:39" ht="21" customHeight="1">
       <c r="B41" s="159"/>
-      <c r="C41" s="464"/>
-      <c r="D41" s="465"/>
-      <c r="E41" s="465"/>
-      <c r="F41" s="450" t="s">
+      <c r="C41" s="461"/>
+      <c r="D41" s="462"/>
+      <c r="E41" s="462"/>
+      <c r="F41" s="447" t="s">
         <v>118</v>
       </c>
-      <c r="G41" s="487"/>
-      <c r="H41" s="488"/>
-      <c r="I41" s="450" t="s">
+      <c r="G41" s="475"/>
+      <c r="H41" s="476"/>
+      <c r="I41" s="447" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="487"/>
-      <c r="K41" s="488"/>
-      <c r="L41" s="450" t="s">
+      <c r="J41" s="475"/>
+      <c r="K41" s="476"/>
+      <c r="L41" s="447" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="487"/>
-      <c r="N41" s="488"/>
-      <c r="O41" s="450" t="s">
+      <c r="M41" s="475"/>
+      <c r="N41" s="476"/>
+      <c r="O41" s="447" t="s">
         <v>121</v>
       </c>
-      <c r="P41" s="487"/>
-      <c r="Q41" s="488"/>
-      <c r="R41" s="464"/>
-      <c r="S41" s="465"/>
-      <c r="T41" s="466"/>
-      <c r="U41" s="492"/>
-      <c r="V41" s="493"/>
-      <c r="W41" s="493"/>
-      <c r="X41" s="494"/>
-      <c r="Y41" s="514"/>
-      <c r="Z41" s="515"/>
-      <c r="AA41" s="516"/>
+      <c r="P41" s="475"/>
+      <c r="Q41" s="476"/>
+      <c r="R41" s="461"/>
+      <c r="S41" s="462"/>
+      <c r="T41" s="463"/>
+      <c r="U41" s="480"/>
+      <c r="V41" s="481"/>
+      <c r="W41" s="481"/>
+      <c r="X41" s="482"/>
+      <c r="Y41" s="499"/>
+      <c r="Z41" s="500"/>
+      <c r="AA41" s="501"/>
       <c r="AH41" s="159"/>
-      <c r="AI41" s="527"/>
-      <c r="AJ41" s="527"/>
+      <c r="AI41" s="512"/>
+      <c r="AJ41" s="512"/>
       <c r="AK41" s="180"/>
       <c r="AL41" s="180"/>
     </row>
     <row r="42" spans="2:39" ht="21" customHeight="1">
       <c r="B42" s="159"/>
-      <c r="C42" s="508">
+      <c r="C42" s="493">
         <v>0</v>
       </c>
-      <c r="D42" s="509"/>
-      <c r="E42" s="510"/>
-      <c r="F42" s="519">
+      <c r="D42" s="494"/>
+      <c r="E42" s="495"/>
+      <c r="F42" s="504">
         <v>0</v>
       </c>
-      <c r="G42" s="520"/>
-      <c r="H42" s="521"/>
+      <c r="G42" s="505"/>
+      <c r="H42" s="506"/>
       <c r="I42" s="429">
         <v>0</v>
       </c>
@@ -37647,28 +37548,28 @@
       </c>
       <c r="P42" s="430"/>
       <c r="Q42" s="431"/>
-      <c r="R42" s="444">
-        <f>AVERAGE(F42:Q42)</f>
+      <c r="R42" s="435">
+        <f>AVERAGE(F42,I42,L42,O42)</f>
         <v>0</v>
       </c>
-      <c r="S42" s="445"/>
-      <c r="T42" s="446"/>
-      <c r="U42" s="468">
-        <f>STDEV(F42:Q42)/SQRT(4)</f>
+      <c r="S42" s="436"/>
+      <c r="T42" s="437"/>
+      <c r="U42" s="432">
+        <f>_xlfn.STDEV.S(F42,I42,L42,O42)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="V42" s="469"/>
-      <c r="W42" s="469"/>
-      <c r="X42" s="470"/>
-      <c r="Y42" s="517">
+      <c r="V42" s="433"/>
+      <c r="W42" s="433"/>
+      <c r="X42" s="434"/>
+      <c r="Y42" s="502">
         <f>R42-C42</f>
         <v>0</v>
       </c>
-      <c r="Z42" s="478"/>
-      <c r="AA42" s="518"/>
+      <c r="Z42" s="472"/>
+      <c r="AA42" s="503"/>
       <c r="AH42" s="159"/>
-      <c r="AI42" s="507"/>
-      <c r="AJ42" s="507"/>
+      <c r="AI42" s="492"/>
+      <c r="AJ42" s="492"/>
       <c r="AK42" s="180"/>
       <c r="AL42" s="180"/>
     </row>
@@ -37700,27 +37601,27 @@
       <c r="P43" s="430"/>
       <c r="Q43" s="431"/>
       <c r="R43" s="435">
-        <f>AVERAGE(F43:Q43)</f>
+        <f t="shared" ref="R43:R52" si="0">AVERAGE(F43,I43,L43,O43)</f>
         <v>2.5000249999999999</v>
       </c>
       <c r="S43" s="436"/>
       <c r="T43" s="437"/>
       <c r="U43" s="432">
-        <f t="shared" ref="U43:U52" si="0">STDEV(F43:Q43)/SQRT(4)</f>
+        <f t="shared" ref="U43:U52" si="1">_xlfn.STDEV.S(F43,I43,L43,O43)/SQRT(4)</f>
         <v>2.5000000000052761E-5</v>
       </c>
       <c r="V43" s="433"/>
       <c r="W43" s="433"/>
       <c r="X43" s="434"/>
-      <c r="Y43" s="447">
+      <c r="Y43" s="444">
         <f>R43-C43</f>
         <v>2.4999999999941735E-5</v>
       </c>
-      <c r="Z43" s="448"/>
-      <c r="AA43" s="449"/>
+      <c r="Z43" s="445"/>
+      <c r="AA43" s="446"/>
       <c r="AH43" s="159"/>
-      <c r="AI43" s="507"/>
-      <c r="AJ43" s="507"/>
+      <c r="AI43" s="492"/>
+      <c r="AJ43" s="492"/>
       <c r="AK43" s="180"/>
       <c r="AL43" s="180"/>
     </row>
@@ -37752,27 +37653,27 @@
       <c r="P44" s="430"/>
       <c r="Q44" s="431"/>
       <c r="R44" s="435">
-        <f t="shared" ref="R44:R52" si="1">AVERAGE(F44:Q44)</f>
+        <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="S44" s="436"/>
       <c r="T44" s="437"/>
       <c r="U44" s="432">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V44" s="433"/>
       <c r="W44" s="433"/>
       <c r="X44" s="434"/>
-      <c r="Y44" s="447">
+      <c r="Y44" s="444">
         <f t="shared" ref="Y44:Y52" si="2">R44-C44</f>
         <v>0</v>
       </c>
-      <c r="Z44" s="448"/>
-      <c r="AA44" s="449"/>
+      <c r="Z44" s="445"/>
+      <c r="AA44" s="446"/>
       <c r="AH44" s="159"/>
-      <c r="AI44" s="507"/>
-      <c r="AJ44" s="507"/>
+      <c r="AI44" s="492"/>
+      <c r="AJ44" s="492"/>
       <c r="AK44" s="180"/>
       <c r="AL44" s="180"/>
     </row>
@@ -37804,27 +37705,27 @@
       <c r="P45" s="430"/>
       <c r="Q45" s="431"/>
       <c r="R45" s="435">
-        <f>AVERAGE(F45:Q45)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
       <c r="S45" s="436"/>
       <c r="T45" s="437"/>
       <c r="U45" s="432">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V45" s="433"/>
       <c r="W45" s="433"/>
       <c r="X45" s="434"/>
-      <c r="Y45" s="447">
+      <c r="Y45" s="444">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z45" s="448"/>
-      <c r="AA45" s="449"/>
+      <c r="Z45" s="445"/>
+      <c r="AA45" s="446"/>
       <c r="AH45" s="159"/>
-      <c r="AI45" s="507"/>
-      <c r="AJ45" s="507"/>
+      <c r="AI45" s="492"/>
+      <c r="AJ45" s="492"/>
       <c r="AK45" s="180"/>
       <c r="AL45" s="180"/>
     </row>
@@ -37855,28 +37756,28 @@
       </c>
       <c r="P46" s="430"/>
       <c r="Q46" s="431"/>
-      <c r="R46" s="482">
+      <c r="R46" s="435">
+        <f t="shared" si="0"/>
+        <v>10.3</v>
+      </c>
+      <c r="S46" s="436"/>
+      <c r="T46" s="437"/>
+      <c r="U46" s="432">
         <f t="shared" si="1"/>
-        <v>10.3</v>
-      </c>
-      <c r="S46" s="483"/>
-      <c r="T46" s="484"/>
-      <c r="U46" s="432">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V46" s="433"/>
       <c r="W46" s="433"/>
       <c r="X46" s="434"/>
-      <c r="Y46" s="447">
+      <c r="Y46" s="444">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z46" s="448"/>
-      <c r="AA46" s="449"/>
+      <c r="Z46" s="445"/>
+      <c r="AA46" s="446"/>
       <c r="AH46" s="159"/>
-      <c r="AI46" s="507"/>
-      <c r="AJ46" s="507"/>
+      <c r="AI46" s="492"/>
+      <c r="AJ46" s="492"/>
       <c r="AK46" s="180"/>
       <c r="AL46" s="180"/>
     </row>
@@ -37908,27 +37809,27 @@
       <c r="P47" s="430"/>
       <c r="Q47" s="431"/>
       <c r="R47" s="435">
-        <f>AVERAGE(F47:Q47)</f>
+        <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
       <c r="S47" s="436"/>
       <c r="T47" s="437"/>
       <c r="U47" s="432">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V47" s="433"/>
       <c r="W47" s="433"/>
       <c r="X47" s="434"/>
-      <c r="Y47" s="447">
+      <c r="Y47" s="444">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z47" s="448"/>
-      <c r="AA47" s="449"/>
+      <c r="Z47" s="445"/>
+      <c r="AA47" s="446"/>
       <c r="AH47" s="159"/>
-      <c r="AI47" s="507"/>
-      <c r="AJ47" s="507"/>
+      <c r="AI47" s="492"/>
+      <c r="AJ47" s="492"/>
       <c r="AK47" s="180"/>
       <c r="AL47" s="180"/>
     </row>
@@ -37960,27 +37861,27 @@
       <c r="P48" s="430"/>
       <c r="Q48" s="431"/>
       <c r="R48" s="435">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="S48" s="436"/>
       <c r="T48" s="437"/>
       <c r="U48" s="432">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V48" s="433"/>
       <c r="W48" s="433"/>
       <c r="X48" s="434"/>
-      <c r="Y48" s="447">
+      <c r="Y48" s="444">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="448"/>
-      <c r="AA48" s="449"/>
+      <c r="Z48" s="445"/>
+      <c r="AA48" s="446"/>
       <c r="AH48" s="159"/>
-      <c r="AI48" s="507"/>
-      <c r="AJ48" s="507"/>
+      <c r="AI48" s="492"/>
+      <c r="AJ48" s="492"/>
       <c r="AK48" s="180"/>
       <c r="AL48" s="180"/>
     </row>
@@ -38012,27 +37913,27 @@
       <c r="P49" s="430"/>
       <c r="Q49" s="431"/>
       <c r="R49" s="435">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
       <c r="S49" s="436"/>
       <c r="T49" s="437"/>
       <c r="U49" s="432">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V49" s="433"/>
       <c r="W49" s="433"/>
       <c r="X49" s="434"/>
-      <c r="Y49" s="447">
+      <c r="Y49" s="444">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="448"/>
-      <c r="AA49" s="449"/>
+      <c r="Z49" s="445"/>
+      <c r="AA49" s="446"/>
       <c r="AH49" s="159"/>
-      <c r="AI49" s="507"/>
-      <c r="AJ49" s="507"/>
+      <c r="AI49" s="492"/>
+      <c r="AJ49" s="492"/>
       <c r="AK49" s="180"/>
       <c r="AL49" s="180"/>
     </row>
@@ -38064,27 +37965,27 @@
       <c r="P50" s="430"/>
       <c r="Q50" s="431"/>
       <c r="R50" s="435">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.2</v>
       </c>
       <c r="S50" s="436"/>
       <c r="T50" s="437"/>
       <c r="U50" s="432">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V50" s="433"/>
       <c r="W50" s="433"/>
       <c r="X50" s="434"/>
-      <c r="Y50" s="447">
+      <c r="Y50" s="444">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="448"/>
-      <c r="AA50" s="449"/>
+      <c r="Z50" s="445"/>
+      <c r="AA50" s="446"/>
       <c r="AH50" s="159"/>
-      <c r="AI50" s="507"/>
-      <c r="AJ50" s="507"/>
+      <c r="AI50" s="492"/>
+      <c r="AJ50" s="492"/>
       <c r="AK50" s="180"/>
       <c r="AL50" s="180"/>
     </row>
@@ -38116,27 +38017,27 @@
       <c r="P51" s="430"/>
       <c r="Q51" s="431"/>
       <c r="R51" s="435">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22.8</v>
       </c>
       <c r="S51" s="436"/>
       <c r="T51" s="437"/>
       <c r="U51" s="432">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V51" s="433"/>
       <c r="W51" s="433"/>
       <c r="X51" s="434"/>
-      <c r="Y51" s="447">
+      <c r="Y51" s="444">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z51" s="448"/>
-      <c r="AA51" s="449"/>
+      <c r="Z51" s="445"/>
+      <c r="AA51" s="446"/>
       <c r="AH51" s="159"/>
-      <c r="AI51" s="507"/>
-      <c r="AJ51" s="507"/>
+      <c r="AI51" s="492"/>
+      <c r="AJ51" s="492"/>
       <c r="AK51" s="180"/>
       <c r="AL51" s="180"/>
     </row>
@@ -38147,48 +38048,48 @@
       </c>
       <c r="D52" s="439"/>
       <c r="E52" s="440"/>
-      <c r="F52" s="498">
+      <c r="F52" s="486">
         <v>25</v>
       </c>
-      <c r="G52" s="499"/>
-      <c r="H52" s="500"/>
-      <c r="I52" s="498">
+      <c r="G52" s="487"/>
+      <c r="H52" s="488"/>
+      <c r="I52" s="486">
         <v>25</v>
       </c>
-      <c r="J52" s="499"/>
-      <c r="K52" s="500"/>
-      <c r="L52" s="498">
+      <c r="J52" s="487"/>
+      <c r="K52" s="488"/>
+      <c r="L52" s="486">
         <v>25</v>
       </c>
-      <c r="M52" s="499"/>
-      <c r="N52" s="500"/>
-      <c r="O52" s="498">
+      <c r="M52" s="487"/>
+      <c r="N52" s="488"/>
+      <c r="O52" s="486">
         <v>25</v>
       </c>
-      <c r="P52" s="499"/>
-      <c r="Q52" s="500"/>
-      <c r="R52" s="479">
+      <c r="P52" s="487"/>
+      <c r="Q52" s="488"/>
+      <c r="R52" s="435">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="S52" s="436"/>
+      <c r="T52" s="437"/>
+      <c r="U52" s="432">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="S52" s="480"/>
-      <c r="T52" s="481"/>
-      <c r="U52" s="501">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V52" s="502"/>
-      <c r="W52" s="502"/>
-      <c r="X52" s="503"/>
-      <c r="Y52" s="495">
+      <c r="V52" s="433"/>
+      <c r="W52" s="433"/>
+      <c r="X52" s="434"/>
+      <c r="Y52" s="483">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="496"/>
-      <c r="AA52" s="497"/>
+      <c r="Z52" s="484"/>
+      <c r="AA52" s="485"/>
       <c r="AH52" s="159"/>
-      <c r="AI52" s="507"/>
-      <c r="AJ52" s="507"/>
+      <c r="AI52" s="492"/>
+      <c r="AJ52" s="492"/>
       <c r="AK52" s="180"/>
       <c r="AL52" s="180"/>
     </row>
@@ -38199,22 +38100,22 @@
       <c r="F53" s="217"/>
       <c r="G53" s="218"/>
       <c r="H53" s="218"/>
-      <c r="I53" s="478"/>
-      <c r="J53" s="478"/>
-      <c r="K53" s="478"/>
-      <c r="L53" s="478"/>
-      <c r="M53" s="478"/>
-      <c r="N53" s="478"/>
-      <c r="O53" s="478"/>
-      <c r="P53" s="478"/>
-      <c r="Q53" s="478"/>
-      <c r="R53" s="478"/>
-      <c r="S53" s="478"/>
-      <c r="T53" s="478"/>
-      <c r="U53" s="478"/>
-      <c r="V53" s="478"/>
-      <c r="W53" s="478"/>
-      <c r="X53" s="448"/>
+      <c r="I53" s="472"/>
+      <c r="J53" s="472"/>
+      <c r="K53" s="472"/>
+      <c r="L53" s="472"/>
+      <c r="M53" s="472"/>
+      <c r="N53" s="472"/>
+      <c r="O53" s="472"/>
+      <c r="P53" s="472"/>
+      <c r="Q53" s="472"/>
+      <c r="R53" s="472"/>
+      <c r="S53" s="472"/>
+      <c r="T53" s="472"/>
+      <c r="U53" s="472"/>
+      <c r="V53" s="472"/>
+      <c r="W53" s="472"/>
+      <c r="X53" s="445"/>
       <c r="Y53" s="189"/>
       <c r="Z53" s="189"/>
       <c r="AA53" s="189"/>
@@ -38785,38 +38686,38 @@
     <row r="1" spans="1:30" ht="13.5" customHeight="1"/>
     <row r="2" spans="1:30" ht="14.1" customHeight="1"/>
     <row r="3" spans="1:30" ht="35.450000000000003" customHeight="1">
-      <c r="A3" s="569" t="s">
+      <c r="A3" s="554" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="569"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="569"/>
-      <c r="F3" s="569"/>
-      <c r="G3" s="569"/>
-      <c r="H3" s="569"/>
-      <c r="I3" s="569"/>
-      <c r="J3" s="569"/>
-      <c r="K3" s="569"/>
-      <c r="L3" s="569"/>
-      <c r="M3" s="569"/>
-      <c r="N3" s="569"/>
-      <c r="O3" s="569"/>
-      <c r="P3" s="569"/>
-      <c r="Q3" s="569"/>
-      <c r="R3" s="569"/>
-      <c r="S3" s="569"/>
-      <c r="T3" s="569"/>
-      <c r="U3" s="569"/>
-      <c r="V3" s="569"/>
-      <c r="W3" s="569"/>
-      <c r="X3" s="569"/>
-      <c r="Y3" s="569"/>
-      <c r="Z3" s="569"/>
-      <c r="AA3" s="569"/>
-      <c r="AB3" s="569"/>
-      <c r="AC3" s="569"/>
-      <c r="AD3" s="569"/>
+      <c r="B3" s="554"/>
+      <c r="C3" s="554"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="554"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="554"/>
+      <c r="I3" s="554"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="554"/>
+      <c r="L3" s="554"/>
+      <c r="M3" s="554"/>
+      <c r="N3" s="554"/>
+      <c r="O3" s="554"/>
+      <c r="P3" s="554"/>
+      <c r="Q3" s="554"/>
+      <c r="R3" s="554"/>
+      <c r="S3" s="554"/>
+      <c r="T3" s="554"/>
+      <c r="U3" s="554"/>
+      <c r="V3" s="554"/>
+      <c r="W3" s="554"/>
+      <c r="X3" s="554"/>
+      <c r="Y3" s="554"/>
+      <c r="Z3" s="554"/>
+      <c r="AA3" s="554"/>
+      <c r="AB3" s="554"/>
+      <c r="AC3" s="554"/>
+      <c r="AD3" s="554"/>
     </row>
     <row r="4" spans="1:30" s="79" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="78"/>
@@ -39164,12 +39065,12 @@
       <c r="I15" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="571">
+      <c r="J15" s="556">
         <f>Data!P7</f>
         <v>0</v>
       </c>
-      <c r="K15" s="571"/>
-      <c r="L15" s="571"/>
+      <c r="K15" s="556"/>
+      <c r="L15" s="556"/>
       <c r="M15" s="288"/>
       <c r="N15" s="288"/>
       <c r="P15" s="86"/>
@@ -39282,13 +39183,13 @@
       <c r="Z19" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="AA19" s="575">
+      <c r="AA19" s="560">
         <f>Data!Q2</f>
         <v>42370</v>
       </c>
-      <c r="AB19" s="575"/>
-      <c r="AC19" s="575"/>
-      <c r="AD19" s="575"/>
+      <c r="AB19" s="560"/>
+      <c r="AC19" s="560"/>
+      <c r="AD19" s="560"/>
     </row>
     <row r="20" spans="1:36" s="79" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="80"/>
@@ -39316,13 +39217,13 @@
       <c r="Z20" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="AA20" s="575">
+      <c r="AA20" s="560">
         <f>Data!Z2</f>
         <v>42371</v>
       </c>
-      <c r="AB20" s="575"/>
-      <c r="AC20" s="575"/>
-      <c r="AD20" s="575"/>
+      <c r="AB20" s="560"/>
+      <c r="AC20" s="560"/>
+      <c r="AD20" s="560"/>
     </row>
     <row r="21" spans="1:36" s="79" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="80"/>
@@ -39350,13 +39251,13 @@
       <c r="Z21" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="AA21" s="576">
+      <c r="AA21" s="561">
         <f>AA20+365</f>
         <v>42736</v>
       </c>
-      <c r="AB21" s="576"/>
-      <c r="AC21" s="576"/>
-      <c r="AD21" s="576"/>
+      <c r="AB21" s="561"/>
+      <c r="AC21" s="561"/>
+      <c r="AD21" s="561"/>
     </row>
     <row r="22" spans="1:36" s="79" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="80"/>
@@ -39695,12 +39596,12 @@
       <c r="G35" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="572">
+      <c r="H35" s="557">
         <f>AA20+1</f>
         <v>42372</v>
       </c>
-      <c r="I35" s="572"/>
-      <c r="J35" s="572"/>
+      <c r="I35" s="557"/>
+      <c r="J35" s="557"/>
       <c r="K35" s="297"/>
       <c r="L35" s="276"/>
       <c r="M35" s="276"/>
@@ -39784,17 +39685,17 @@
       <c r="Q37" s="303">
         <v>3</v>
       </c>
-      <c r="V37" s="573" t="str">
+      <c r="V37" s="558" t="str">
         <f>IF(Q37=1,"( Mr.Sombut Srikampa )",IF(Q37=3,"( Mr. Natthaphol Boonmee )"))</f>
         <v>( Mr. Natthaphol Boonmee )</v>
       </c>
-      <c r="W37" s="573"/>
-      <c r="X37" s="573"/>
-      <c r="Y37" s="573"/>
-      <c r="Z37" s="573"/>
-      <c r="AA37" s="573"/>
-      <c r="AB37" s="573"/>
-      <c r="AC37" s="573"/>
+      <c r="W37" s="558"/>
+      <c r="X37" s="558"/>
+      <c r="Y37" s="558"/>
+      <c r="Z37" s="558"/>
+      <c r="AA37" s="558"/>
+      <c r="AB37" s="558"/>
+      <c r="AC37" s="558"/>
       <c r="AE37" s="296"/>
       <c r="AF37" s="183"/>
       <c r="AG37" s="162"/>
@@ -39820,16 +39721,16 @@
       <c r="O38" s="276"/>
       <c r="P38" s="276"/>
       <c r="Q38" s="276"/>
-      <c r="V38" s="574" t="s">
+      <c r="V38" s="559" t="s">
         <v>44</v>
       </c>
-      <c r="W38" s="574"/>
-      <c r="X38" s="574"/>
-      <c r="Y38" s="574"/>
-      <c r="Z38" s="574"/>
-      <c r="AA38" s="574"/>
-      <c r="AB38" s="574"/>
-      <c r="AC38" s="574"/>
+      <c r="W38" s="559"/>
+      <c r="X38" s="559"/>
+      <c r="Y38" s="559"/>
+      <c r="Z38" s="559"/>
+      <c r="AA38" s="559"/>
+      <c r="AB38" s="559"/>
+      <c r="AC38" s="559"/>
       <c r="AD38" s="305"/>
       <c r="AE38" s="306"/>
       <c r="AF38" s="306"/>
@@ -39861,28 +39762,28 @@
       <c r="AA39" s="134"/>
     </row>
     <row r="40" spans="1:36" s="79" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A40" s="570"/>
-      <c r="B40" s="570"/>
-      <c r="C40" s="570"/>
-      <c r="D40" s="570"/>
-      <c r="E40" s="570"/>
-      <c r="F40" s="570"/>
-      <c r="G40" s="570"/>
-      <c r="H40" s="570"/>
-      <c r="I40" s="570"/>
-      <c r="J40" s="570"/>
-      <c r="K40" s="570"/>
-      <c r="L40" s="570"/>
-      <c r="M40" s="570"/>
-      <c r="N40" s="570"/>
-      <c r="O40" s="570"/>
-      <c r="P40" s="570"/>
-      <c r="Q40" s="570"/>
-      <c r="R40" s="570"/>
-      <c r="S40" s="570"/>
-      <c r="T40" s="570"/>
-      <c r="U40" s="570"/>
-      <c r="V40" s="570"/>
+      <c r="A40" s="555"/>
+      <c r="B40" s="555"/>
+      <c r="C40" s="555"/>
+      <c r="D40" s="555"/>
+      <c r="E40" s="555"/>
+      <c r="F40" s="555"/>
+      <c r="G40" s="555"/>
+      <c r="H40" s="555"/>
+      <c r="I40" s="555"/>
+      <c r="J40" s="555"/>
+      <c r="K40" s="555"/>
+      <c r="L40" s="555"/>
+      <c r="M40" s="555"/>
+      <c r="N40" s="555"/>
+      <c r="O40" s="555"/>
+      <c r="P40" s="555"/>
+      <c r="Q40" s="555"/>
+      <c r="R40" s="555"/>
+      <c r="S40" s="555"/>
+      <c r="T40" s="555"/>
+      <c r="U40" s="555"/>
+      <c r="V40" s="555"/>
       <c r="W40" s="142"/>
     </row>
     <row r="41" spans="1:36" ht="18.75" customHeight="1">
@@ -40162,30 +40063,30 @@
     <row r="1" spans="1:22" ht="21.75" customHeight="1"/>
     <row r="2" spans="1:22" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A3" s="578" t="s">
+      <c r="A3" s="567" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="578"/>
-      <c r="C3" s="578"/>
-      <c r="D3" s="578"/>
-      <c r="E3" s="578"/>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="578"/>
-      <c r="L3" s="578"/>
-      <c r="M3" s="578"/>
-      <c r="N3" s="578"/>
-      <c r="O3" s="578"/>
-      <c r="P3" s="578"/>
-      <c r="Q3" s="578"/>
-      <c r="R3" s="578"/>
-      <c r="S3" s="578"/>
-      <c r="T3" s="578"/>
-      <c r="U3" s="578"/>
-      <c r="V3" s="578"/>
+      <c r="B3" s="567"/>
+      <c r="C3" s="567"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="567"/>
+      <c r="F3" s="567"/>
+      <c r="G3" s="567"/>
+      <c r="H3" s="567"/>
+      <c r="I3" s="567"/>
+      <c r="J3" s="567"/>
+      <c r="K3" s="567"/>
+      <c r="L3" s="567"/>
+      <c r="M3" s="567"/>
+      <c r="N3" s="567"/>
+      <c r="O3" s="567"/>
+      <c r="P3" s="567"/>
+      <c r="Q3" s="567"/>
+      <c r="R3" s="567"/>
+      <c r="S3" s="567"/>
+      <c r="T3" s="567"/>
+      <c r="U3" s="567"/>
+      <c r="V3" s="567"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
       <c r="A4" s="78"/>
@@ -40293,18 +40194,18 @@
       <c r="D8" s="93"/>
       <c r="E8" s="83"/>
       <c r="F8" s="83"/>
-      <c r="G8" s="577" t="s">
+      <c r="G8" s="566" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="577"/>
-      <c r="I8" s="577"/>
-      <c r="J8" s="577"/>
-      <c r="K8" s="577"/>
-      <c r="L8" s="577"/>
-      <c r="M8" s="577"/>
-      <c r="N8" s="577"/>
-      <c r="O8" s="577"/>
-      <c r="P8" s="577"/>
+      <c r="H8" s="566"/>
+      <c r="I8" s="566"/>
+      <c r="J8" s="566"/>
+      <c r="K8" s="566"/>
+      <c r="L8" s="566"/>
+      <c r="M8" s="566"/>
+      <c r="N8" s="566"/>
+      <c r="O8" s="566"/>
+      <c r="P8" s="566"/>
       <c r="Q8" s="96"/>
       <c r="R8" s="96"/>
       <c r="S8" s="96"/>
@@ -40319,16 +40220,16 @@
       <c r="D9" s="93"/>
       <c r="E9" s="83"/>
       <c r="F9" s="83"/>
-      <c r="G9" s="577"/>
-      <c r="H9" s="577"/>
-      <c r="I9" s="577"/>
-      <c r="J9" s="577"/>
-      <c r="K9" s="577"/>
-      <c r="L9" s="577"/>
-      <c r="M9" s="577"/>
-      <c r="N9" s="577"/>
-      <c r="O9" s="577"/>
-      <c r="P9" s="577"/>
+      <c r="G9" s="566"/>
+      <c r="H9" s="566"/>
+      <c r="I9" s="566"/>
+      <c r="J9" s="566"/>
+      <c r="K9" s="566"/>
+      <c r="L9" s="566"/>
+      <c r="M9" s="566"/>
+      <c r="N9" s="566"/>
+      <c r="O9" s="566"/>
+      <c r="P9" s="566"/>
       <c r="Q9" s="96"/>
       <c r="R9" s="96"/>
       <c r="S9" s="96"/>
@@ -40362,70 +40263,70 @@
     </row>
     <row r="11" spans="1:22" ht="23.1" customHeight="1">
       <c r="A11" s="80"/>
-      <c r="B11" s="597" t="s">
+      <c r="B11" s="562" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="595"/>
-      <c r="D11" s="595"/>
-      <c r="E11" s="595"/>
-      <c r="F11" s="595"/>
-      <c r="G11" s="596"/>
-      <c r="H11" s="597" t="s">
+      <c r="C11" s="563"/>
+      <c r="D11" s="563"/>
+      <c r="E11" s="563"/>
+      <c r="F11" s="563"/>
+      <c r="G11" s="564"/>
+      <c r="H11" s="562" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="595"/>
-      <c r="J11" s="596"/>
-      <c r="K11" s="597" t="s">
+      <c r="I11" s="563"/>
+      <c r="J11" s="564"/>
+      <c r="K11" s="562" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="595"/>
-      <c r="M11" s="596"/>
-      <c r="N11" s="597" t="s">
+      <c r="L11" s="563"/>
+      <c r="M11" s="564"/>
+      <c r="N11" s="562" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="595"/>
-      <c r="P11" s="595"/>
-      <c r="Q11" s="596"/>
-      <c r="R11" s="595" t="s">
+      <c r="O11" s="563"/>
+      <c r="P11" s="563"/>
+      <c r="Q11" s="564"/>
+      <c r="R11" s="563" t="s">
         <v>48</v>
       </c>
-      <c r="S11" s="595"/>
-      <c r="T11" s="595"/>
-      <c r="U11" s="596"/>
+      <c r="S11" s="563"/>
+      <c r="T11" s="563"/>
+      <c r="U11" s="564"/>
       <c r="V11" s="79"/>
     </row>
     <row r="12" spans="1:22" ht="23.1" customHeight="1">
       <c r="A12" s="80"/>
-      <c r="B12" s="584" t="s">
+      <c r="B12" s="573" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="585"/>
-      <c r="D12" s="585"/>
-      <c r="E12" s="585"/>
-      <c r="F12" s="585"/>
-      <c r="G12" s="585"/>
-      <c r="H12" s="586" t="s">
+      <c r="C12" s="574"/>
+      <c r="D12" s="574"/>
+      <c r="E12" s="574"/>
+      <c r="F12" s="574"/>
+      <c r="G12" s="574"/>
+      <c r="H12" s="575" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="587"/>
-      <c r="J12" s="588"/>
-      <c r="K12" s="586">
+      <c r="I12" s="576"/>
+      <c r="J12" s="577"/>
+      <c r="K12" s="575">
         <v>60711</v>
       </c>
-      <c r="L12" s="587"/>
-      <c r="M12" s="588"/>
-      <c r="N12" s="589" t="s">
+      <c r="L12" s="576"/>
+      <c r="M12" s="577"/>
+      <c r="N12" s="578" t="s">
         <v>117</v>
       </c>
-      <c r="O12" s="590"/>
-      <c r="P12" s="590"/>
-      <c r="Q12" s="591"/>
-      <c r="R12" s="592">
+      <c r="O12" s="579"/>
+      <c r="P12" s="579"/>
+      <c r="Q12" s="580"/>
+      <c r="R12" s="581">
         <v>42336</v>
       </c>
-      <c r="S12" s="593"/>
-      <c r="T12" s="593"/>
-      <c r="U12" s="594"/>
+      <c r="S12" s="582"/>
+      <c r="T12" s="582"/>
+      <c r="U12" s="583"/>
       <c r="V12" s="114"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1">
@@ -40564,10 +40465,10 @@
       <c r="G18" s="83"/>
       <c r="H18" s="83"/>
       <c r="I18" s="111"/>
-      <c r="J18" s="583"/>
-      <c r="K18" s="582"/>
-      <c r="L18" s="582"/>
-      <c r="M18" s="582"/>
+      <c r="J18" s="572"/>
+      <c r="K18" s="571"/>
+      <c r="L18" s="571"/>
+      <c r="M18" s="571"/>
       <c r="N18" s="79"/>
       <c r="O18" s="112"/>
       <c r="P18" s="112"/>
@@ -40588,10 +40489,10 @@
       <c r="G19" s="83"/>
       <c r="H19" s="83"/>
       <c r="I19" s="111"/>
-      <c r="J19" s="582"/>
-      <c r="K19" s="582"/>
-      <c r="L19" s="582"/>
-      <c r="M19" s="582"/>
+      <c r="J19" s="571"/>
+      <c r="K19" s="571"/>
+      <c r="L19" s="571"/>
+      <c r="M19" s="571"/>
       <c r="N19" s="79"/>
       <c r="O19" s="112"/>
       <c r="P19" s="112"/>
@@ -41040,16 +40941,16 @@
       <c r="C38" s="107"/>
       <c r="D38" s="107"/>
       <c r="E38" s="107"/>
-      <c r="F38" s="579"/>
-      <c r="G38" s="579"/>
-      <c r="H38" s="579"/>
-      <c r="I38" s="579"/>
+      <c r="F38" s="568"/>
+      <c r="G38" s="568"/>
+      <c r="H38" s="568"/>
+      <c r="I38" s="568"/>
       <c r="J38" s="139"/>
       <c r="K38" s="107"/>
-      <c r="L38" s="580"/>
-      <c r="M38" s="580"/>
-      <c r="N38" s="580"/>
-      <c r="O38" s="580"/>
+      <c r="L38" s="569"/>
+      <c r="M38" s="569"/>
+      <c r="N38" s="569"/>
+      <c r="O38" s="569"/>
       <c r="P38" s="85"/>
       <c r="Q38" s="85"/>
       <c r="R38" s="85"/>
@@ -41098,11 +40999,11 @@
       <c r="M40" s="99"/>
       <c r="N40" s="99"/>
       <c r="O40" s="99"/>
-      <c r="P40" s="581"/>
-      <c r="Q40" s="581"/>
-      <c r="R40" s="581"/>
-      <c r="S40" s="581"/>
-      <c r="T40" s="581"/>
+      <c r="P40" s="570"/>
+      <c r="Q40" s="570"/>
+      <c r="R40" s="570"/>
+      <c r="S40" s="570"/>
+      <c r="T40" s="570"/>
       <c r="U40" s="134"/>
       <c r="V40" s="134"/>
     </row>
@@ -41110,11 +41011,11 @@
       <c r="A41" s="80"/>
       <c r="B41" s="79"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="598"/>
-      <c r="E41" s="598"/>
-      <c r="F41" s="598"/>
-      <c r="G41" s="598"/>
-      <c r="H41" s="598"/>
+      <c r="D41" s="565"/>
+      <c r="E41" s="565"/>
+      <c r="F41" s="565"/>
+      <c r="G41" s="565"/>
+      <c r="H41" s="565"/>
       <c r="I41" s="79"/>
       <c r="J41" s="79"/>
       <c r="K41" s="99"/>
@@ -41131,34 +41032,31 @@
       <c r="V41" s="134"/>
     </row>
     <row r="42" spans="1:22" ht="15">
-      <c r="A42" s="570"/>
-      <c r="B42" s="570"/>
-      <c r="C42" s="570"/>
-      <c r="D42" s="570"/>
-      <c r="E42" s="570"/>
-      <c r="F42" s="570"/>
-      <c r="G42" s="570"/>
-      <c r="H42" s="570"/>
-      <c r="I42" s="570"/>
-      <c r="J42" s="570"/>
-      <c r="K42" s="570"/>
-      <c r="L42" s="570"/>
-      <c r="M42" s="570"/>
-      <c r="N42" s="570"/>
-      <c r="O42" s="570"/>
-      <c r="P42" s="570"/>
-      <c r="Q42" s="570"/>
-      <c r="R42" s="570"/>
-      <c r="S42" s="570"/>
-      <c r="T42" s="570"/>
+      <c r="A42" s="555"/>
+      <c r="B42" s="555"/>
+      <c r="C42" s="555"/>
+      <c r="D42" s="555"/>
+      <c r="E42" s="555"/>
+      <c r="F42" s="555"/>
+      <c r="G42" s="555"/>
+      <c r="H42" s="555"/>
+      <c r="I42" s="555"/>
+      <c r="J42" s="555"/>
+      <c r="K42" s="555"/>
+      <c r="L42" s="555"/>
+      <c r="M42" s="555"/>
+      <c r="N42" s="555"/>
+      <c r="O42" s="555"/>
+      <c r="P42" s="555"/>
+      <c r="Q42" s="555"/>
+      <c r="R42" s="555"/>
+      <c r="S42" s="555"/>
+      <c r="T42" s="555"/>
       <c r="U42" s="142"/>
       <c r="V42" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="A42:T42"/>
-    <mergeCell ref="D41:H41"/>
     <mergeCell ref="G8:P9"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="F38:I38"/>
@@ -41175,6 +41073,9 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="A42:T42"/>
+    <mergeCell ref="D41:H41"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -41248,30 +41149,30 @@
       <c r="U2" s="143"/>
     </row>
     <row r="3" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A3" s="630" t="s">
+      <c r="A3" s="615" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="630"/>
-      <c r="C3" s="630"/>
-      <c r="D3" s="630"/>
-      <c r="E3" s="630"/>
-      <c r="F3" s="630"/>
-      <c r="G3" s="630"/>
-      <c r="H3" s="630"/>
-      <c r="I3" s="630"/>
-      <c r="J3" s="630"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="630"/>
-      <c r="M3" s="630"/>
-      <c r="N3" s="630"/>
-      <c r="O3" s="630"/>
-      <c r="P3" s="630"/>
-      <c r="Q3" s="630"/>
-      <c r="R3" s="630"/>
-      <c r="S3" s="630"/>
-      <c r="T3" s="630"/>
-      <c r="U3" s="630"/>
-      <c r="V3" s="630"/>
+      <c r="B3" s="615"/>
+      <c r="C3" s="615"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="615"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="615"/>
+      <c r="L3" s="615"/>
+      <c r="M3" s="615"/>
+      <c r="N3" s="615"/>
+      <c r="O3" s="615"/>
+      <c r="P3" s="615"/>
+      <c r="Q3" s="615"/>
+      <c r="R3" s="615"/>
+      <c r="S3" s="615"/>
+      <c r="T3" s="615"/>
+      <c r="U3" s="615"/>
+      <c r="V3" s="615"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
       <c r="A4" s="143"/>
@@ -41373,19 +41274,19 @@
         <v>7</v>
       </c>
       <c r="K7" s="143"/>
-      <c r="M7" s="637" t="s">
+      <c r="M7" s="622" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="637"/>
-      <c r="O7" s="637"/>
+      <c r="N7" s="622"/>
+      <c r="O7" s="622"/>
       <c r="P7" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="638">
+      <c r="Q7" s="623">
         <f>Data!P8</f>
         <v>1E-3</v>
       </c>
-      <c r="R7" s="638"/>
+      <c r="R7" s="623"/>
       <c r="S7" s="143" t="s">
         <v>7</v>
       </c>
@@ -41436,29 +41337,29 @@
       <c r="A10" s="256"/>
       <c r="B10" s="256"/>
       <c r="C10" s="256"/>
-      <c r="E10" s="631" t="s">
+      <c r="E10" s="616" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="632"/>
-      <c r="G10" s="632"/>
-      <c r="H10" s="633"/>
-      <c r="I10" s="631" t="s">
+      <c r="F10" s="617"/>
+      <c r="G10" s="617"/>
+      <c r="H10" s="618"/>
+      <c r="I10" s="616" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="632"/>
-      <c r="K10" s="632"/>
-      <c r="L10" s="633"/>
-      <c r="M10" s="639" t="s">
+      <c r="J10" s="617"/>
+      <c r="K10" s="617"/>
+      <c r="L10" s="618"/>
+      <c r="M10" s="624" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="640"/>
-      <c r="O10" s="641"/>
-      <c r="P10" s="645" t="s">
+      <c r="N10" s="625"/>
+      <c r="O10" s="626"/>
+      <c r="P10" s="630" t="s">
         <v>156</v>
       </c>
-      <c r="Q10" s="646"/>
-      <c r="R10" s="646"/>
-      <c r="S10" s="647"/>
+      <c r="Q10" s="631"/>
+      <c r="R10" s="631"/>
+      <c r="S10" s="632"/>
       <c r="T10" s="256"/>
       <c r="U10" s="256"/>
     </row>
@@ -41466,21 +41367,21 @@
       <c r="A11" s="256"/>
       <c r="B11" s="257"/>
       <c r="C11" s="257"/>
-      <c r="E11" s="634"/>
-      <c r="F11" s="635"/>
-      <c r="G11" s="635"/>
-      <c r="H11" s="636"/>
-      <c r="I11" s="634"/>
-      <c r="J11" s="635"/>
-      <c r="K11" s="635"/>
-      <c r="L11" s="636"/>
-      <c r="M11" s="642"/>
-      <c r="N11" s="643"/>
-      <c r="O11" s="644"/>
-      <c r="P11" s="648"/>
-      <c r="Q11" s="649"/>
-      <c r="R11" s="649"/>
-      <c r="S11" s="650"/>
+      <c r="E11" s="619"/>
+      <c r="F11" s="620"/>
+      <c r="G11" s="620"/>
+      <c r="H11" s="621"/>
+      <c r="I11" s="619"/>
+      <c r="J11" s="620"/>
+      <c r="K11" s="620"/>
+      <c r="L11" s="621"/>
+      <c r="M11" s="627"/>
+      <c r="N11" s="628"/>
+      <c r="O11" s="629"/>
+      <c r="P11" s="633"/>
+      <c r="Q11" s="634"/>
+      <c r="R11" s="634"/>
+      <c r="S11" s="635"/>
       <c r="T11" s="256"/>
       <c r="U11" s="256"/>
     </row>
@@ -41488,33 +41389,33 @@
       <c r="A12" s="256"/>
       <c r="B12" s="258"/>
       <c r="C12" s="258"/>
-      <c r="E12" s="624">
+      <c r="E12" s="609">
         <f>Data!C42</f>
         <v>0</v>
       </c>
-      <c r="F12" s="625"/>
-      <c r="G12" s="625"/>
-      <c r="H12" s="626"/>
-      <c r="I12" s="618">
+      <c r="F12" s="610"/>
+      <c r="G12" s="610"/>
+      <c r="H12" s="611"/>
+      <c r="I12" s="603">
         <f>Data!R42</f>
         <v>0</v>
       </c>
-      <c r="J12" s="619"/>
-      <c r="K12" s="619"/>
-      <c r="L12" s="620"/>
-      <c r="M12" s="618">
+      <c r="J12" s="604"/>
+      <c r="K12" s="604"/>
+      <c r="L12" s="605"/>
+      <c r="M12" s="603">
         <f>Data!Y42</f>
         <v>0</v>
       </c>
-      <c r="N12" s="619"/>
-      <c r="O12" s="620"/>
-      <c r="P12" s="615">
+      <c r="N12" s="604"/>
+      <c r="O12" s="605"/>
+      <c r="P12" s="600">
         <f>'Uncertainty Budget 0 to 25mm'!O7</f>
         <v>0.57735026918962584</v>
       </c>
-      <c r="Q12" s="616"/>
-      <c r="R12" s="616"/>
-      <c r="S12" s="617"/>
+      <c r="Q12" s="601"/>
+      <c r="R12" s="601"/>
+      <c r="S12" s="602"/>
       <c r="T12" s="256"/>
       <c r="U12" s="256"/>
     </row>
@@ -41522,33 +41423,33 @@
       <c r="A13" s="256"/>
       <c r="B13" s="258"/>
       <c r="C13" s="258"/>
-      <c r="E13" s="627">
+      <c r="E13" s="612">
         <f>Data!C43</f>
         <v>2.5</v>
       </c>
-      <c r="F13" s="628"/>
-      <c r="G13" s="628"/>
-      <c r="H13" s="629"/>
-      <c r="I13" s="621">
+      <c r="F13" s="613"/>
+      <c r="G13" s="613"/>
+      <c r="H13" s="614"/>
+      <c r="I13" s="606">
         <f>Data!R43</f>
         <v>2.5000249999999999</v>
       </c>
-      <c r="J13" s="622"/>
-      <c r="K13" s="622"/>
-      <c r="L13" s="623"/>
-      <c r="M13" s="621">
+      <c r="J13" s="607"/>
+      <c r="K13" s="607"/>
+      <c r="L13" s="608"/>
+      <c r="M13" s="606">
         <f>Data!Y43</f>
         <v>2.4999999999941735E-5</v>
       </c>
-      <c r="N13" s="622"/>
-      <c r="O13" s="623"/>
-      <c r="P13" s="612">
+      <c r="N13" s="607"/>
+      <c r="O13" s="608"/>
+      <c r="P13" s="597">
         <f>'Uncertainty Budget 0 to 25mm'!O8</f>
         <v>0.58356794314479932</v>
       </c>
-      <c r="Q13" s="613"/>
-      <c r="R13" s="613"/>
-      <c r="S13" s="614"/>
+      <c r="Q13" s="598"/>
+      <c r="R13" s="598"/>
+      <c r="S13" s="599"/>
       <c r="T13" s="256"/>
       <c r="U13" s="256"/>
     </row>
@@ -41556,33 +41457,33 @@
       <c r="A14" s="256"/>
       <c r="B14" s="258"/>
       <c r="C14" s="258"/>
-      <c r="E14" s="627">
+      <c r="E14" s="612">
         <f>Data!C44</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F14" s="628"/>
-      <c r="G14" s="628"/>
-      <c r="H14" s="629"/>
-      <c r="I14" s="621">
+      <c r="F14" s="613"/>
+      <c r="G14" s="613"/>
+      <c r="H14" s="614"/>
+      <c r="I14" s="606">
         <f>Data!R44</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="J14" s="622"/>
-      <c r="K14" s="622"/>
-      <c r="L14" s="623"/>
-      <c r="M14" s="621">
+      <c r="J14" s="607"/>
+      <c r="K14" s="607"/>
+      <c r="L14" s="608"/>
+      <c r="M14" s="606">
         <f>Data!Y44</f>
         <v>0</v>
       </c>
-      <c r="N14" s="622"/>
-      <c r="O14" s="623"/>
-      <c r="P14" s="612">
+      <c r="N14" s="607"/>
+      <c r="O14" s="608"/>
+      <c r="P14" s="597">
         <f>'Uncertainty Budget 0 to 25mm'!O9</f>
         <v>0.58439692276169053</v>
       </c>
-      <c r="Q14" s="613"/>
-      <c r="R14" s="613"/>
-      <c r="S14" s="614"/>
+      <c r="Q14" s="598"/>
+      <c r="R14" s="598"/>
+      <c r="S14" s="599"/>
       <c r="T14" s="256"/>
       <c r="U14" s="256"/>
     </row>
@@ -41590,33 +41491,33 @@
       <c r="A15" s="256"/>
       <c r="B15" s="258"/>
       <c r="C15" s="258"/>
-      <c r="E15" s="627">
+      <c r="E15" s="612">
         <f>Data!C45</f>
         <v>7.7</v>
       </c>
-      <c r="F15" s="628"/>
-      <c r="G15" s="628"/>
-      <c r="H15" s="629"/>
-      <c r="I15" s="621">
+      <c r="F15" s="613"/>
+      <c r="G15" s="613"/>
+      <c r="H15" s="614"/>
+      <c r="I15" s="606">
         <f>Data!R45</f>
         <v>7.7</v>
       </c>
-      <c r="J15" s="622"/>
-      <c r="K15" s="622"/>
-      <c r="L15" s="623"/>
-      <c r="M15" s="621">
+      <c r="J15" s="607"/>
+      <c r="K15" s="607"/>
+      <c r="L15" s="608"/>
+      <c r="M15" s="606">
         <f>Data!Y45</f>
         <v>0</v>
       </c>
-      <c r="N15" s="622"/>
-      <c r="O15" s="623"/>
-      <c r="P15" s="612">
+      <c r="N15" s="607"/>
+      <c r="O15" s="608"/>
+      <c r="P15" s="597">
         <f>'Uncertainty Budget 0 to 25mm'!O10</f>
         <v>0.58939641724960179</v>
       </c>
-      <c r="Q15" s="613"/>
-      <c r="R15" s="613"/>
-      <c r="S15" s="614"/>
+      <c r="Q15" s="598"/>
+      <c r="R15" s="598"/>
+      <c r="S15" s="599"/>
       <c r="T15" s="256"/>
       <c r="U15" s="256"/>
     </row>
@@ -41624,33 +41525,33 @@
       <c r="A16" s="256"/>
       <c r="B16" s="258"/>
       <c r="C16" s="258"/>
-      <c r="E16" s="627">
+      <c r="E16" s="612">
         <f>Data!C46</f>
         <v>10.3</v>
       </c>
-      <c r="F16" s="628"/>
-      <c r="G16" s="628"/>
-      <c r="H16" s="629"/>
-      <c r="I16" s="621">
+      <c r="F16" s="613"/>
+      <c r="G16" s="613"/>
+      <c r="H16" s="614"/>
+      <c r="I16" s="606">
         <f>Data!R46</f>
         <v>10.3</v>
       </c>
-      <c r="J16" s="622"/>
-      <c r="K16" s="622"/>
-      <c r="L16" s="623"/>
-      <c r="M16" s="621">
+      <c r="J16" s="607"/>
+      <c r="K16" s="607"/>
+      <c r="L16" s="608"/>
+      <c r="M16" s="606">
         <f>Data!Y46</f>
         <v>0</v>
       </c>
-      <c r="N16" s="622"/>
-      <c r="O16" s="623"/>
-      <c r="P16" s="612">
+      <c r="N16" s="607"/>
+      <c r="O16" s="608"/>
+      <c r="P16" s="597">
         <f>'Uncertainty Budget 0 to 25mm'!O11</f>
         <v>0.59744500723218597</v>
       </c>
-      <c r="Q16" s="613"/>
-      <c r="R16" s="613"/>
-      <c r="S16" s="614"/>
+      <c r="Q16" s="598"/>
+      <c r="R16" s="598"/>
+      <c r="S16" s="599"/>
       <c r="T16" s="256"/>
       <c r="U16" s="256"/>
     </row>
@@ -41658,33 +41559,33 @@
       <c r="A17" s="256"/>
       <c r="B17" s="258"/>
       <c r="C17" s="258"/>
-      <c r="E17" s="627">
+      <c r="E17" s="612">
         <f>Data!C47</f>
         <v>12.9</v>
       </c>
-      <c r="F17" s="628"/>
-      <c r="G17" s="628"/>
-      <c r="H17" s="629"/>
-      <c r="I17" s="621">
+      <c r="F17" s="613"/>
+      <c r="G17" s="613"/>
+      <c r="H17" s="614"/>
+      <c r="I17" s="606">
         <f>Data!R47</f>
         <v>12.9</v>
       </c>
-      <c r="J17" s="622"/>
-      <c r="K17" s="622"/>
-      <c r="L17" s="623"/>
-      <c r="M17" s="621">
+      <c r="J17" s="607"/>
+      <c r="K17" s="607"/>
+      <c r="L17" s="608"/>
+      <c r="M17" s="606">
         <f>Data!Y47</f>
         <v>0</v>
       </c>
-      <c r="N17" s="622"/>
-      <c r="O17" s="623"/>
-      <c r="P17" s="612">
+      <c r="N17" s="607"/>
+      <c r="O17" s="608"/>
+      <c r="P17" s="597">
         <f>'Uncertainty Budget 0 to 25mm'!O12</f>
         <v>0.6062812576134391</v>
       </c>
-      <c r="Q17" s="613"/>
-      <c r="R17" s="613"/>
-      <c r="S17" s="614"/>
+      <c r="Q17" s="598"/>
+      <c r="R17" s="598"/>
+      <c r="S17" s="599"/>
       <c r="T17" s="256"/>
       <c r="U17" s="256"/>
     </row>
@@ -41692,33 +41593,33 @@
       <c r="A18" s="256"/>
       <c r="B18" s="258"/>
       <c r="C18" s="258"/>
-      <c r="E18" s="627">
+      <c r="E18" s="612">
         <f>Data!C48</f>
         <v>15</v>
       </c>
-      <c r="F18" s="628"/>
-      <c r="G18" s="628"/>
-      <c r="H18" s="629"/>
-      <c r="I18" s="621">
+      <c r="F18" s="613"/>
+      <c r="G18" s="613"/>
+      <c r="H18" s="614"/>
+      <c r="I18" s="606">
         <f>Data!R48</f>
         <v>15</v>
       </c>
-      <c r="J18" s="622"/>
-      <c r="K18" s="622"/>
-      <c r="L18" s="623"/>
-      <c r="M18" s="621">
+      <c r="J18" s="607"/>
+      <c r="K18" s="607"/>
+      <c r="L18" s="608"/>
+      <c r="M18" s="606">
         <f>Data!Y48</f>
         <v>0</v>
       </c>
-      <c r="N18" s="622"/>
-      <c r="O18" s="623"/>
-      <c r="P18" s="612">
+      <c r="N18" s="607"/>
+      <c r="O18" s="608"/>
+      <c r="P18" s="597">
         <f>'Uncertainty Budget 0 to 25mm'!O13</f>
         <v>0.6147424935152388</v>
       </c>
-      <c r="Q18" s="613"/>
-      <c r="R18" s="613"/>
-      <c r="S18" s="614"/>
+      <c r="Q18" s="598"/>
+      <c r="R18" s="598"/>
+      <c r="S18" s="599"/>
       <c r="T18" s="256"/>
       <c r="U18" s="256"/>
     </row>
@@ -41726,33 +41627,33 @@
       <c r="A19" s="256"/>
       <c r="B19" s="258"/>
       <c r="C19" s="258"/>
-      <c r="E19" s="627">
+      <c r="E19" s="612">
         <f>Data!C49</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="F19" s="628"/>
-      <c r="G19" s="628"/>
-      <c r="H19" s="629"/>
-      <c r="I19" s="621">
+      <c r="F19" s="613"/>
+      <c r="G19" s="613"/>
+      <c r="H19" s="614"/>
+      <c r="I19" s="606">
         <f>Data!R49</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="J19" s="622"/>
-      <c r="K19" s="622"/>
-      <c r="L19" s="623"/>
-      <c r="M19" s="621">
+      <c r="J19" s="607"/>
+      <c r="K19" s="607"/>
+      <c r="L19" s="608"/>
+      <c r="M19" s="606">
         <f>Data!Y49</f>
         <v>0</v>
       </c>
-      <c r="N19" s="622"/>
-      <c r="O19" s="623"/>
-      <c r="P19" s="612">
+      <c r="N19" s="607"/>
+      <c r="O19" s="608"/>
+      <c r="P19" s="597">
         <f>'Uncertainty Budget 0 to 25mm'!O14</f>
         <v>0.62678093993568984</v>
       </c>
-      <c r="Q19" s="613"/>
-      <c r="R19" s="613"/>
-      <c r="S19" s="614"/>
+      <c r="Q19" s="598"/>
+      <c r="R19" s="598"/>
+      <c r="S19" s="599"/>
       <c r="T19" s="256"/>
       <c r="U19" s="256"/>
     </row>
@@ -41760,33 +41661,33 @@
       <c r="A20" s="256"/>
       <c r="B20" s="258"/>
       <c r="C20" s="258"/>
-      <c r="E20" s="627">
+      <c r="E20" s="612">
         <f>Data!C50</f>
         <v>20.2</v>
       </c>
-      <c r="F20" s="628"/>
-      <c r="G20" s="628"/>
-      <c r="H20" s="629"/>
-      <c r="I20" s="621">
+      <c r="F20" s="613"/>
+      <c r="G20" s="613"/>
+      <c r="H20" s="614"/>
+      <c r="I20" s="606">
         <f>Data!R50</f>
         <v>20.2</v>
       </c>
-      <c r="J20" s="622"/>
-      <c r="K20" s="622"/>
-      <c r="L20" s="623"/>
-      <c r="M20" s="621">
+      <c r="J20" s="607"/>
+      <c r="K20" s="607"/>
+      <c r="L20" s="608"/>
+      <c r="M20" s="606">
         <f>Data!Y50</f>
         <v>0</v>
       </c>
-      <c r="N20" s="622"/>
-      <c r="O20" s="623"/>
-      <c r="P20" s="612">
+      <c r="N20" s="607"/>
+      <c r="O20" s="608"/>
+      <c r="P20" s="597">
         <f>'Uncertainty Budget 0 to 25mm'!O15</f>
         <v>0.64045638935579885</v>
       </c>
-      <c r="Q20" s="613"/>
-      <c r="R20" s="613"/>
-      <c r="S20" s="614"/>
+      <c r="Q20" s="598"/>
+      <c r="R20" s="598"/>
+      <c r="S20" s="599"/>
       <c r="T20" s="259"/>
       <c r="U20" s="256"/>
     </row>
@@ -41794,33 +41695,33 @@
       <c r="A21" s="256"/>
       <c r="B21" s="258"/>
       <c r="C21" s="258"/>
-      <c r="E21" s="627">
+      <c r="E21" s="612">
         <f>Data!C51</f>
         <v>22.8</v>
       </c>
-      <c r="F21" s="628"/>
-      <c r="G21" s="628"/>
-      <c r="H21" s="629"/>
-      <c r="I21" s="621">
+      <c r="F21" s="613"/>
+      <c r="G21" s="613"/>
+      <c r="H21" s="614"/>
+      <c r="I21" s="606">
         <f>Data!R51</f>
         <v>22.8</v>
       </c>
-      <c r="J21" s="622"/>
-      <c r="K21" s="622"/>
-      <c r="L21" s="623"/>
-      <c r="M21" s="621">
+      <c r="J21" s="607"/>
+      <c r="K21" s="607"/>
+      <c r="L21" s="608"/>
+      <c r="M21" s="606">
         <f>Data!Y51</f>
         <v>0</v>
       </c>
-      <c r="N21" s="622"/>
-      <c r="O21" s="623"/>
-      <c r="P21" s="612">
+      <c r="N21" s="607"/>
+      <c r="O21" s="608"/>
+      <c r="P21" s="597">
         <f>'Uncertainty Budget 0 to 25mm'!O16</f>
         <v>0.65566641925092772</v>
       </c>
-      <c r="Q21" s="613"/>
-      <c r="R21" s="613"/>
-      <c r="S21" s="614"/>
+      <c r="Q21" s="598"/>
+      <c r="R21" s="598"/>
+      <c r="S21" s="599"/>
       <c r="T21" s="259"/>
       <c r="U21" s="256"/>
     </row>
@@ -41828,33 +41729,33 @@
       <c r="A22" s="256"/>
       <c r="B22" s="256"/>
       <c r="C22" s="256"/>
-      <c r="E22" s="606">
+      <c r="E22" s="591">
         <f>Data!C52</f>
         <v>25</v>
       </c>
-      <c r="F22" s="607"/>
-      <c r="G22" s="607"/>
-      <c r="H22" s="608"/>
-      <c r="I22" s="609">
+      <c r="F22" s="592"/>
+      <c r="G22" s="592"/>
+      <c r="H22" s="593"/>
+      <c r="I22" s="594">
         <f>Data!R52</f>
         <v>25</v>
       </c>
-      <c r="J22" s="610"/>
-      <c r="K22" s="610"/>
-      <c r="L22" s="611"/>
-      <c r="M22" s="609">
+      <c r="J22" s="595"/>
+      <c r="K22" s="595"/>
+      <c r="L22" s="596"/>
+      <c r="M22" s="594">
         <f>Data!Y52</f>
         <v>0</v>
       </c>
-      <c r="N22" s="610"/>
-      <c r="O22" s="611"/>
-      <c r="P22" s="603">
+      <c r="N22" s="595"/>
+      <c r="O22" s="596"/>
+      <c r="P22" s="588">
         <f>'Uncertainty Budget 0 to 25mm'!O17</f>
         <v>0.6696578728475211</v>
       </c>
-      <c r="Q22" s="604"/>
-      <c r="R22" s="604"/>
-      <c r="S22" s="605"/>
+      <c r="Q22" s="589"/>
+      <c r="R22" s="589"/>
+      <c r="S22" s="590"/>
       <c r="T22" s="260"/>
       <c r="U22" s="216"/>
     </row>
@@ -41881,15 +41782,15 @@
       <c r="B25" s="144"/>
       <c r="C25" s="263"/>
       <c r="D25" s="148"/>
-      <c r="E25" s="600" t="s">
+      <c r="E25" s="585" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="601"/>
-      <c r="G25" s="601"/>
-      <c r="H25" s="601"/>
-      <c r="I25" s="601"/>
-      <c r="J25" s="601"/>
-      <c r="K25" s="602"/>
+      <c r="F25" s="586"/>
+      <c r="G25" s="586"/>
+      <c r="H25" s="586"/>
+      <c r="I25" s="586"/>
+      <c r="J25" s="586"/>
+      <c r="K25" s="587"/>
       <c r="L25" s="338" t="s">
         <v>140</v>
       </c>
@@ -41923,14 +41824,14 @@
       <c r="L26" s="346"/>
       <c r="M26" s="347"/>
       <c r="N26" s="348"/>
-      <c r="O26" s="462" t="s">
+      <c r="O26" s="459" t="s">
         <v>54</v>
       </c>
-      <c r="P26" s="462">
+      <c r="P26" s="459">
         <f>Data!T24</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="Q26" s="462" t="s">
+      <c r="Q26" s="459" t="s">
         <v>10</v>
       </c>
       <c r="R26" s="324"/>
@@ -41958,9 +41859,9 @@
       <c r="L27" s="320"/>
       <c r="M27" s="262"/>
       <c r="N27" s="349"/>
-      <c r="O27" s="465"/>
-      <c r="P27" s="465"/>
-      <c r="Q27" s="465"/>
+      <c r="O27" s="462"/>
+      <c r="P27" s="462"/>
+      <c r="Q27" s="462"/>
       <c r="R27" s="318"/>
       <c r="S27" s="343"/>
     </row>
@@ -42048,30 +41949,30 @@
       <c r="X31" s="325"/>
     </row>
     <row r="32" spans="1:24" s="326" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="599" t="s">
+      <c r="A32" s="584" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="599"/>
-      <c r="C32" s="599"/>
-      <c r="D32" s="599"/>
-      <c r="E32" s="599"/>
-      <c r="F32" s="599"/>
-      <c r="G32" s="599"/>
-      <c r="H32" s="599"/>
-      <c r="I32" s="599"/>
-      <c r="J32" s="599"/>
-      <c r="K32" s="599"/>
-      <c r="L32" s="599"/>
-      <c r="M32" s="599"/>
-      <c r="N32" s="599"/>
-      <c r="O32" s="599"/>
-      <c r="P32" s="599"/>
-      <c r="Q32" s="599"/>
-      <c r="R32" s="599"/>
-      <c r="S32" s="599"/>
-      <c r="T32" s="599"/>
-      <c r="U32" s="599"/>
-      <c r="V32" s="599"/>
+      <c r="B32" s="584"/>
+      <c r="C32" s="584"/>
+      <c r="D32" s="584"/>
+      <c r="E32" s="584"/>
+      <c r="F32" s="584"/>
+      <c r="G32" s="584"/>
+      <c r="H32" s="584"/>
+      <c r="I32" s="584"/>
+      <c r="J32" s="584"/>
+      <c r="K32" s="584"/>
+      <c r="L32" s="584"/>
+      <c r="M32" s="584"/>
+      <c r="N32" s="584"/>
+      <c r="O32" s="584"/>
+      <c r="P32" s="584"/>
+      <c r="Q32" s="584"/>
+      <c r="R32" s="584"/>
+      <c r="S32" s="584"/>
+      <c r="T32" s="584"/>
+      <c r="U32" s="584"/>
+      <c r="V32" s="584"/>
       <c r="W32" s="337"/>
       <c r="X32" s="337"/>
     </row>
@@ -43048,8 +42949,8 @@
   </sheetPr>
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -43507,29 +43408,29 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="33" customHeight="1">
-      <c r="B2" s="655" t="s">
+      <c r="B2" s="640" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="655"/>
-      <c r="D2" s="655"/>
-      <c r="E2" s="655"/>
-      <c r="F2" s="655"/>
-      <c r="G2" s="655"/>
-      <c r="H2" s="655"/>
-      <c r="I2" s="655"/>
-      <c r="J2" s="655"/>
-      <c r="K2" s="655"/>
-      <c r="L2" s="655"/>
-      <c r="M2" s="655"/>
-      <c r="N2" s="655"/>
-      <c r="O2" s="655"/>
+      <c r="C2" s="640"/>
+      <c r="D2" s="640"/>
+      <c r="E2" s="640"/>
+      <c r="F2" s="640"/>
+      <c r="G2" s="640"/>
+      <c r="H2" s="640"/>
+      <c r="I2" s="640"/>
+      <c r="J2" s="640"/>
+      <c r="K2" s="640"/>
+      <c r="L2" s="640"/>
+      <c r="M2" s="640"/>
+      <c r="N2" s="640"/>
+      <c r="O2" s="640"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
-      <c r="B3" s="656"/>
-      <c r="C3" s="656"/>
-      <c r="D3" s="656"/>
-      <c r="E3" s="656"/>
-      <c r="F3" s="656"/>
+      <c r="B3" s="641"/>
+      <c r="C3" s="641"/>
+      <c r="D3" s="641"/>
+      <c r="E3" s="641"/>
+      <c r="F3" s="641"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="O3" s="3"/>
@@ -43538,32 +43439,32 @@
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="657" t="s">
+      <c r="C4" s="642" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="658"/>
-      <c r="E4" s="657" t="s">
+      <c r="D4" s="643"/>
+      <c r="E4" s="642" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="658"/>
-      <c r="G4" s="659" t="s">
+      <c r="F4" s="643"/>
+      <c r="G4" s="644" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="660"/>
-      <c r="I4" s="657" t="s">
+      <c r="H4" s="645"/>
+      <c r="I4" s="642" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="658"/>
-      <c r="K4" s="653" t="s">
+      <c r="J4" s="643"/>
+      <c r="K4" s="638" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="653" t="s">
+      <c r="L4" s="638" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="653" t="s">
+      <c r="M4" s="638" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="653" t="s">
+      <c r="N4" s="638" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="314" t="s">
@@ -43574,26 +43475,26 @@
       <c r="B5" s="313" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="651" t="s">
+      <c r="C5" s="636" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="652"/>
-      <c r="E5" s="651" t="s">
+      <c r="D5" s="637"/>
+      <c r="E5" s="636" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="652"/>
-      <c r="G5" s="651" t="s">
+      <c r="F5" s="637"/>
+      <c r="G5" s="636" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="652"/>
-      <c r="I5" s="651" t="s">
+      <c r="H5" s="637"/>
+      <c r="I5" s="636" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="652"/>
-      <c r="K5" s="654"/>
-      <c r="L5" s="654"/>
-      <c r="M5" s="654"/>
-      <c r="N5" s="654"/>
+      <c r="J5" s="637"/>
+      <c r="K5" s="639"/>
+      <c r="L5" s="639"/>
+      <c r="M5" s="639"/>
+      <c r="N5" s="639"/>
       <c r="O5" s="315" t="s">
         <v>139</v>
       </c>
@@ -46237,137 +46138,137 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:29" ht="26.25">
-      <c r="A2" s="669" t="s">
+      <c r="A2" s="654" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="670"/>
-      <c r="C2" s="670"/>
-      <c r="D2" s="670"/>
-      <c r="E2" s="671"/>
+      <c r="B2" s="655"/>
+      <c r="C2" s="655"/>
+      <c r="D2" s="655"/>
+      <c r="E2" s="656"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="669" t="s">
+      <c r="G2" s="654" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="670"/>
-      <c r="I2" s="670"/>
-      <c r="J2" s="670"/>
-      <c r="K2" s="671"/>
+      <c r="H2" s="655"/>
+      <c r="I2" s="655"/>
+      <c r="J2" s="655"/>
+      <c r="K2" s="656"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="669" t="s">
+      <c r="M2" s="654" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="670"/>
-      <c r="O2" s="670"/>
-      <c r="P2" s="670"/>
-      <c r="Q2" s="671"/>
+      <c r="N2" s="655"/>
+      <c r="O2" s="655"/>
+      <c r="P2" s="655"/>
+      <c r="Q2" s="656"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="669" t="s">
+      <c r="S2" s="654" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="670"/>
-      <c r="U2" s="670"/>
-      <c r="V2" s="670"/>
-      <c r="W2" s="671"/>
+      <c r="T2" s="655"/>
+      <c r="U2" s="655"/>
+      <c r="V2" s="655"/>
+      <c r="W2" s="656"/>
       <c r="X2" s="39"/>
-      <c r="Y2" s="669" t="s">
+      <c r="Y2" s="654" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="670"/>
-      <c r="AA2" s="670"/>
-      <c r="AB2" s="670"/>
-      <c r="AC2" s="671"/>
+      <c r="Z2" s="655"/>
+      <c r="AA2" s="655"/>
+      <c r="AB2" s="655"/>
+      <c r="AC2" s="656"/>
     </row>
     <row r="3" spans="1:29" ht="26.25">
-      <c r="A3" s="661" t="s">
+      <c r="A3" s="646" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="662"/>
-      <c r="C3" s="662"/>
-      <c r="D3" s="662"/>
-      <c r="E3" s="663"/>
+      <c r="B3" s="647"/>
+      <c r="C3" s="647"/>
+      <c r="D3" s="647"/>
+      <c r="E3" s="648"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="661" t="s">
+      <c r="G3" s="646" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="662"/>
-      <c r="I3" s="662"/>
-      <c r="J3" s="662"/>
-      <c r="K3" s="663"/>
+      <c r="H3" s="647"/>
+      <c r="I3" s="647"/>
+      <c r="J3" s="647"/>
+      <c r="K3" s="648"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="661" t="s">
+      <c r="M3" s="646" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="662"/>
-      <c r="O3" s="662"/>
-      <c r="P3" s="662"/>
-      <c r="Q3" s="663"/>
+      <c r="N3" s="647"/>
+      <c r="O3" s="647"/>
+      <c r="P3" s="647"/>
+      <c r="Q3" s="648"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="661" t="s">
+      <c r="S3" s="646" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="662"/>
-      <c r="U3" s="662"/>
-      <c r="V3" s="662"/>
-      <c r="W3" s="663"/>
+      <c r="T3" s="647"/>
+      <c r="U3" s="647"/>
+      <c r="V3" s="647"/>
+      <c r="W3" s="648"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="661" t="s">
+      <c r="Y3" s="646" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="662"/>
-      <c r="AA3" s="662"/>
-      <c r="AB3" s="662"/>
-      <c r="AC3" s="663"/>
+      <c r="Z3" s="647"/>
+      <c r="AA3" s="647"/>
+      <c r="AB3" s="647"/>
+      <c r="AC3" s="648"/>
     </row>
     <row r="4" spans="1:29" ht="26.25">
-      <c r="A4" s="664" t="s">
+      <c r="A4" s="649" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="665"/>
-      <c r="C4" s="666">
+      <c r="B4" s="650"/>
+      <c r="C4" s="651">
         <v>42337</v>
       </c>
-      <c r="D4" s="667"/>
-      <c r="E4" s="668"/>
+      <c r="D4" s="652"/>
+      <c r="E4" s="653"/>
       <c r="F4" s="39"/>
-      <c r="G4" s="664" t="s">
+      <c r="G4" s="649" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="665"/>
-      <c r="I4" s="666">
+      <c r="H4" s="650"/>
+      <c r="I4" s="651">
         <v>42503</v>
       </c>
-      <c r="J4" s="667"/>
-      <c r="K4" s="668"/>
+      <c r="J4" s="652"/>
+      <c r="K4" s="653"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="664" t="s">
+      <c r="M4" s="649" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="665"/>
-      <c r="O4" s="666">
+      <c r="N4" s="650"/>
+      <c r="O4" s="651">
         <v>42337</v>
       </c>
-      <c r="P4" s="667"/>
-      <c r="Q4" s="668"/>
+      <c r="P4" s="652"/>
+      <c r="Q4" s="653"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="664" t="s">
+      <c r="S4" s="649" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="665"/>
-      <c r="U4" s="666">
+      <c r="T4" s="650"/>
+      <c r="U4" s="651">
         <v>42502</v>
       </c>
-      <c r="V4" s="667"/>
-      <c r="W4" s="668"/>
+      <c r="V4" s="652"/>
+      <c r="W4" s="653"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="664" t="s">
+      <c r="Y4" s="649" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="665"/>
-      <c r="AA4" s="666">
+      <c r="Z4" s="650"/>
+      <c r="AA4" s="651">
         <v>42530</v>
       </c>
-      <c r="AB4" s="667"/>
-      <c r="AC4" s="668"/>
+      <c r="AB4" s="652"/>
+      <c r="AC4" s="653"/>
     </row>
     <row r="5" spans="1:29" ht="26.25">
       <c r="A5" s="42">
@@ -48502,1407 +48403,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:N86"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N86"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1">
-      <c r="A1" s="672" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" s="672"/>
-      <c r="C1" s="672"/>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
-      <c r="N1" s="672"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="672"/>
-      <c r="B2" s="672"/>
-      <c r="C2" s="672"/>
-      <c r="D2" s="672"/>
-      <c r="E2" s="672"/>
-      <c r="F2" s="672"/>
-      <c r="G2" s="672"/>
-      <c r="H2" s="672"/>
-      <c r="I2" s="672"/>
-      <c r="J2" s="672"/>
-      <c r="K2" s="672"/>
-      <c r="L2" s="672"/>
-      <c r="M2" s="672"/>
-      <c r="N2" s="672"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="672"/>
-      <c r="B3" s="672"/>
-      <c r="C3" s="672"/>
-      <c r="D3" s="672"/>
-      <c r="E3" s="672"/>
-      <c r="F3" s="672"/>
-      <c r="G3" s="672"/>
-      <c r="H3" s="672"/>
-      <c r="I3" s="672"/>
-      <c r="J3" s="672"/>
-      <c r="K3" s="672"/>
-      <c r="L3" s="672"/>
-      <c r="M3" s="672"/>
-      <c r="N3" s="672"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="672"/>
-      <c r="B4" s="672"/>
-      <c r="C4" s="672"/>
-      <c r="D4" s="672"/>
-      <c r="E4" s="672"/>
-      <c r="F4" s="672"/>
-      <c r="G4" s="672"/>
-      <c r="H4" s="672"/>
-      <c r="I4" s="672"/>
-      <c r="J4" s="672"/>
-      <c r="K4" s="672"/>
-      <c r="L4" s="672"/>
-      <c r="M4" s="672"/>
-      <c r="N4" s="672"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="672"/>
-      <c r="B5" s="672"/>
-      <c r="C5" s="672"/>
-      <c r="D5" s="672"/>
-      <c r="E5" s="672"/>
-      <c r="F5" s="672"/>
-      <c r="G5" s="672"/>
-      <c r="H5" s="672"/>
-      <c r="I5" s="672"/>
-      <c r="J5" s="672"/>
-      <c r="K5" s="672"/>
-      <c r="L5" s="672"/>
-      <c r="M5" s="672"/>
-      <c r="N5" s="672"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="672"/>
-      <c r="B6" s="672"/>
-      <c r="C6" s="672"/>
-      <c r="D6" s="672"/>
-      <c r="E6" s="672"/>
-      <c r="F6" s="672"/>
-      <c r="G6" s="672"/>
-      <c r="H6" s="672"/>
-      <c r="I6" s="672"/>
-      <c r="J6" s="672"/>
-      <c r="K6" s="672"/>
-      <c r="L6" s="672"/>
-      <c r="M6" s="672"/>
-      <c r="N6" s="672"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1">
-      <c r="A7" s="672"/>
-      <c r="B7" s="672"/>
-      <c r="C7" s="672"/>
-      <c r="D7" s="672"/>
-      <c r="E7" s="672"/>
-      <c r="F7" s="672"/>
-      <c r="G7" s="672"/>
-      <c r="H7" s="672"/>
-      <c r="I7" s="672"/>
-      <c r="J7" s="672"/>
-      <c r="K7" s="672"/>
-      <c r="L7" s="672"/>
-      <c r="M7" s="672"/>
-      <c r="N7" s="672"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="672"/>
-      <c r="B8" s="672"/>
-      <c r="C8" s="672"/>
-      <c r="D8" s="672"/>
-      <c r="E8" s="672"/>
-      <c r="F8" s="672"/>
-      <c r="G8" s="672"/>
-      <c r="H8" s="672"/>
-      <c r="I8" s="672"/>
-      <c r="J8" s="672"/>
-      <c r="K8" s="672"/>
-      <c r="L8" s="672"/>
-      <c r="M8" s="672"/>
-      <c r="N8" s="672"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="672"/>
-      <c r="B9" s="672"/>
-      <c r="C9" s="672"/>
-      <c r="D9" s="672"/>
-      <c r="E9" s="672"/>
-      <c r="F9" s="672"/>
-      <c r="G9" s="672"/>
-      <c r="H9" s="672"/>
-      <c r="I9" s="672"/>
-      <c r="J9" s="672"/>
-      <c r="K9" s="672"/>
-      <c r="L9" s="672"/>
-      <c r="M9" s="672"/>
-      <c r="N9" s="672"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="672"/>
-      <c r="B10" s="672"/>
-      <c r="C10" s="672"/>
-      <c r="D10" s="672"/>
-      <c r="E10" s="672"/>
-      <c r="F10" s="672"/>
-      <c r="G10" s="672"/>
-      <c r="H10" s="672"/>
-      <c r="I10" s="672"/>
-      <c r="J10" s="672"/>
-      <c r="K10" s="672"/>
-      <c r="L10" s="672"/>
-      <c r="M10" s="672"/>
-      <c r="N10" s="672"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1">
-      <c r="A11" s="672"/>
-      <c r="B11" s="672"/>
-      <c r="C11" s="672"/>
-      <c r="D11" s="672"/>
-      <c r="E11" s="672"/>
-      <c r="F11" s="672"/>
-      <c r="G11" s="672"/>
-      <c r="H11" s="672"/>
-      <c r="I11" s="672"/>
-      <c r="J11" s="672"/>
-      <c r="K11" s="672"/>
-      <c r="L11" s="672"/>
-      <c r="M11" s="672"/>
-      <c r="N11" s="672"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="A12" s="672"/>
-      <c r="B12" s="672"/>
-      <c r="C12" s="672"/>
-      <c r="D12" s="672"/>
-      <c r="E12" s="672"/>
-      <c r="F12" s="672"/>
-      <c r="G12" s="672"/>
-      <c r="H12" s="672"/>
-      <c r="I12" s="672"/>
-      <c r="J12" s="672"/>
-      <c r="K12" s="672"/>
-      <c r="L12" s="672"/>
-      <c r="M12" s="672"/>
-      <c r="N12" s="672"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="672"/>
-      <c r="B13" s="672"/>
-      <c r="C13" s="672"/>
-      <c r="D13" s="672"/>
-      <c r="E13" s="672"/>
-      <c r="F13" s="672"/>
-      <c r="G13" s="672"/>
-      <c r="H13" s="672"/>
-      <c r="I13" s="672"/>
-      <c r="J13" s="672"/>
-      <c r="K13" s="672"/>
-      <c r="L13" s="672"/>
-      <c r="M13" s="672"/>
-      <c r="N13" s="672"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="672"/>
-      <c r="B14" s="672"/>
-      <c r="C14" s="672"/>
-      <c r="D14" s="672"/>
-      <c r="E14" s="672"/>
-      <c r="F14" s="672"/>
-      <c r="G14" s="672"/>
-      <c r="H14" s="672"/>
-      <c r="I14" s="672"/>
-      <c r="J14" s="672"/>
-      <c r="K14" s="672"/>
-      <c r="L14" s="672"/>
-      <c r="M14" s="672"/>
-      <c r="N14" s="672"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="672"/>
-      <c r="B15" s="672"/>
-      <c r="C15" s="672"/>
-      <c r="D15" s="672"/>
-      <c r="E15" s="672"/>
-      <c r="F15" s="672"/>
-      <c r="G15" s="672"/>
-      <c r="H15" s="672"/>
-      <c r="I15" s="672"/>
-      <c r="J15" s="672"/>
-      <c r="K15" s="672"/>
-      <c r="L15" s="672"/>
-      <c r="M15" s="672"/>
-      <c r="N15" s="672"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="672"/>
-      <c r="B16" s="672"/>
-      <c r="C16" s="672"/>
-      <c r="D16" s="672"/>
-      <c r="E16" s="672"/>
-      <c r="F16" s="672"/>
-      <c r="G16" s="672"/>
-      <c r="H16" s="672"/>
-      <c r="I16" s="672"/>
-      <c r="J16" s="672"/>
-      <c r="K16" s="672"/>
-      <c r="L16" s="672"/>
-      <c r="M16" s="672"/>
-      <c r="N16" s="672"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="672"/>
-      <c r="B17" s="672"/>
-      <c r="C17" s="672"/>
-      <c r="D17" s="672"/>
-      <c r="E17" s="672"/>
-      <c r="F17" s="672"/>
-      <c r="G17" s="672"/>
-      <c r="H17" s="672"/>
-      <c r="I17" s="672"/>
-      <c r="J17" s="672"/>
-      <c r="K17" s="672"/>
-      <c r="L17" s="672"/>
-      <c r="M17" s="672"/>
-      <c r="N17" s="672"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="672"/>
-      <c r="B18" s="672"/>
-      <c r="C18" s="672"/>
-      <c r="D18" s="672"/>
-      <c r="E18" s="672"/>
-      <c r="F18" s="672"/>
-      <c r="G18" s="672"/>
-      <c r="H18" s="672"/>
-      <c r="I18" s="672"/>
-      <c r="J18" s="672"/>
-      <c r="K18" s="672"/>
-      <c r="L18" s="672"/>
-      <c r="M18" s="672"/>
-      <c r="N18" s="672"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="672"/>
-      <c r="B19" s="672"/>
-      <c r="C19" s="672"/>
-      <c r="D19" s="672"/>
-      <c r="E19" s="672"/>
-      <c r="F19" s="672"/>
-      <c r="G19" s="672"/>
-      <c r="H19" s="672"/>
-      <c r="I19" s="672"/>
-      <c r="J19" s="672"/>
-      <c r="K19" s="672"/>
-      <c r="L19" s="672"/>
-      <c r="M19" s="672"/>
-      <c r="N19" s="672"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="672"/>
-      <c r="B20" s="672"/>
-      <c r="C20" s="672"/>
-      <c r="D20" s="672"/>
-      <c r="E20" s="672"/>
-      <c r="F20" s="672"/>
-      <c r="G20" s="672"/>
-      <c r="H20" s="672"/>
-      <c r="I20" s="672"/>
-      <c r="J20" s="672"/>
-      <c r="K20" s="672"/>
-      <c r="L20" s="672"/>
-      <c r="M20" s="672"/>
-      <c r="N20" s="672"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="672"/>
-      <c r="B21" s="672"/>
-      <c r="C21" s="672"/>
-      <c r="D21" s="672"/>
-      <c r="E21" s="672"/>
-      <c r="F21" s="672"/>
-      <c r="G21" s="672"/>
-      <c r="H21" s="672"/>
-      <c r="I21" s="672"/>
-      <c r="J21" s="672"/>
-      <c r="K21" s="672"/>
-      <c r="L21" s="672"/>
-      <c r="M21" s="672"/>
-      <c r="N21" s="672"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="672"/>
-      <c r="B22" s="672"/>
-      <c r="C22" s="672"/>
-      <c r="D22" s="672"/>
-      <c r="E22" s="672"/>
-      <c r="F22" s="672"/>
-      <c r="G22" s="672"/>
-      <c r="H22" s="672"/>
-      <c r="I22" s="672"/>
-      <c r="J22" s="672"/>
-      <c r="K22" s="672"/>
-      <c r="L22" s="672"/>
-      <c r="M22" s="672"/>
-      <c r="N22" s="672"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="672"/>
-      <c r="B23" s="672"/>
-      <c r="C23" s="672"/>
-      <c r="D23" s="672"/>
-      <c r="E23" s="672"/>
-      <c r="F23" s="672"/>
-      <c r="G23" s="672"/>
-      <c r="H23" s="672"/>
-      <c r="I23" s="672"/>
-      <c r="J23" s="672"/>
-      <c r="K23" s="672"/>
-      <c r="L23" s="672"/>
-      <c r="M23" s="672"/>
-      <c r="N23" s="672"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="672"/>
-      <c r="B24" s="672"/>
-      <c r="C24" s="672"/>
-      <c r="D24" s="672"/>
-      <c r="E24" s="672"/>
-      <c r="F24" s="672"/>
-      <c r="G24" s="672"/>
-      <c r="H24" s="672"/>
-      <c r="I24" s="672"/>
-      <c r="J24" s="672"/>
-      <c r="K24" s="672"/>
-      <c r="L24" s="672"/>
-      <c r="M24" s="672"/>
-      <c r="N24" s="672"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="672"/>
-      <c r="B25" s="672"/>
-      <c r="C25" s="672"/>
-      <c r="D25" s="672"/>
-      <c r="E25" s="672"/>
-      <c r="F25" s="672"/>
-      <c r="G25" s="672"/>
-      <c r="H25" s="672"/>
-      <c r="I25" s="672"/>
-      <c r="J25" s="672"/>
-      <c r="K25" s="672"/>
-      <c r="L25" s="672"/>
-      <c r="M25" s="672"/>
-      <c r="N25" s="672"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="672"/>
-      <c r="B26" s="672"/>
-      <c r="C26" s="672"/>
-      <c r="D26" s="672"/>
-      <c r="E26" s="672"/>
-      <c r="F26" s="672"/>
-      <c r="G26" s="672"/>
-      <c r="H26" s="672"/>
-      <c r="I26" s="672"/>
-      <c r="J26" s="672"/>
-      <c r="K26" s="672"/>
-      <c r="L26" s="672"/>
-      <c r="M26" s="672"/>
-      <c r="N26" s="672"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="672"/>
-      <c r="B27" s="672"/>
-      <c r="C27" s="672"/>
-      <c r="D27" s="672"/>
-      <c r="E27" s="672"/>
-      <c r="F27" s="672"/>
-      <c r="G27" s="672"/>
-      <c r="H27" s="672"/>
-      <c r="I27" s="672"/>
-      <c r="J27" s="672"/>
-      <c r="K27" s="672"/>
-      <c r="L27" s="672"/>
-      <c r="M27" s="672"/>
-      <c r="N27" s="672"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="672"/>
-      <c r="B28" s="672"/>
-      <c r="C28" s="672"/>
-      <c r="D28" s="672"/>
-      <c r="E28" s="672"/>
-      <c r="F28" s="672"/>
-      <c r="G28" s="672"/>
-      <c r="H28" s="672"/>
-      <c r="I28" s="672"/>
-      <c r="J28" s="672"/>
-      <c r="K28" s="672"/>
-      <c r="L28" s="672"/>
-      <c r="M28" s="672"/>
-      <c r="N28" s="672"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="672"/>
-      <c r="B29" s="672"/>
-      <c r="C29" s="672"/>
-      <c r="D29" s="672"/>
-      <c r="E29" s="672"/>
-      <c r="F29" s="672"/>
-      <c r="G29" s="672"/>
-      <c r="H29" s="672"/>
-      <c r="I29" s="672"/>
-      <c r="J29" s="672"/>
-      <c r="K29" s="672"/>
-      <c r="L29" s="672"/>
-      <c r="M29" s="672"/>
-      <c r="N29" s="672"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="672"/>
-      <c r="B30" s="672"/>
-      <c r="C30" s="672"/>
-      <c r="D30" s="672"/>
-      <c r="E30" s="672"/>
-      <c r="F30" s="672"/>
-      <c r="G30" s="672"/>
-      <c r="H30" s="672"/>
-      <c r="I30" s="672"/>
-      <c r="J30" s="672"/>
-      <c r="K30" s="672"/>
-      <c r="L30" s="672"/>
-      <c r="M30" s="672"/>
-      <c r="N30" s="672"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="672"/>
-      <c r="B31" s="672"/>
-      <c r="C31" s="672"/>
-      <c r="D31" s="672"/>
-      <c r="E31" s="672"/>
-      <c r="F31" s="672"/>
-      <c r="G31" s="672"/>
-      <c r="H31" s="672"/>
-      <c r="I31" s="672"/>
-      <c r="J31" s="672"/>
-      <c r="K31" s="672"/>
-      <c r="L31" s="672"/>
-      <c r="M31" s="672"/>
-      <c r="N31" s="672"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="672"/>
-      <c r="B32" s="672"/>
-      <c r="C32" s="672"/>
-      <c r="D32" s="672"/>
-      <c r="E32" s="672"/>
-      <c r="F32" s="672"/>
-      <c r="G32" s="672"/>
-      <c r="H32" s="672"/>
-      <c r="I32" s="672"/>
-      <c r="J32" s="672"/>
-      <c r="K32" s="672"/>
-      <c r="L32" s="672"/>
-      <c r="M32" s="672"/>
-      <c r="N32" s="672"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="672"/>
-      <c r="B33" s="672"/>
-      <c r="C33" s="672"/>
-      <c r="D33" s="672"/>
-      <c r="E33" s="672"/>
-      <c r="F33" s="672"/>
-      <c r="G33" s="672"/>
-      <c r="H33" s="672"/>
-      <c r="I33" s="672"/>
-      <c r="J33" s="672"/>
-      <c r="K33" s="672"/>
-      <c r="L33" s="672"/>
-      <c r="M33" s="672"/>
-      <c r="N33" s="672"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="672"/>
-      <c r="B34" s="672"/>
-      <c r="C34" s="672"/>
-      <c r="D34" s="672"/>
-      <c r="E34" s="672"/>
-      <c r="F34" s="672"/>
-      <c r="G34" s="672"/>
-      <c r="H34" s="672"/>
-      <c r="I34" s="672"/>
-      <c r="J34" s="672"/>
-      <c r="K34" s="672"/>
-      <c r="L34" s="672"/>
-      <c r="M34" s="672"/>
-      <c r="N34" s="672"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="672"/>
-      <c r="B35" s="672"/>
-      <c r="C35" s="672"/>
-      <c r="D35" s="672"/>
-      <c r="E35" s="672"/>
-      <c r="F35" s="672"/>
-      <c r="G35" s="672"/>
-      <c r="H35" s="672"/>
-      <c r="I35" s="672"/>
-      <c r="J35" s="672"/>
-      <c r="K35" s="672"/>
-      <c r="L35" s="672"/>
-      <c r="M35" s="672"/>
-      <c r="N35" s="672"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="672"/>
-      <c r="B36" s="672"/>
-      <c r="C36" s="672"/>
-      <c r="D36" s="672"/>
-      <c r="E36" s="672"/>
-      <c r="F36" s="672"/>
-      <c r="G36" s="672"/>
-      <c r="H36" s="672"/>
-      <c r="I36" s="672"/>
-      <c r="J36" s="672"/>
-      <c r="K36" s="672"/>
-      <c r="L36" s="672"/>
-      <c r="M36" s="672"/>
-      <c r="N36" s="672"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="672"/>
-      <c r="B37" s="672"/>
-      <c r="C37" s="672"/>
-      <c r="D37" s="672"/>
-      <c r="E37" s="672"/>
-      <c r="F37" s="672"/>
-      <c r="G37" s="672"/>
-      <c r="H37" s="672"/>
-      <c r="I37" s="672"/>
-      <c r="J37" s="672"/>
-      <c r="K37" s="672"/>
-      <c r="L37" s="672"/>
-      <c r="M37" s="672"/>
-      <c r="N37" s="672"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="672"/>
-      <c r="B38" s="672"/>
-      <c r="C38" s="672"/>
-      <c r="D38" s="672"/>
-      <c r="E38" s="672"/>
-      <c r="F38" s="672"/>
-      <c r="G38" s="672"/>
-      <c r="H38" s="672"/>
-      <c r="I38" s="672"/>
-      <c r="J38" s="672"/>
-      <c r="K38" s="672"/>
-      <c r="L38" s="672"/>
-      <c r="M38" s="672"/>
-      <c r="N38" s="672"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="672"/>
-      <c r="B39" s="672"/>
-      <c r="C39" s="672"/>
-      <c r="D39" s="672"/>
-      <c r="E39" s="672"/>
-      <c r="F39" s="672"/>
-      <c r="G39" s="672"/>
-      <c r="H39" s="672"/>
-      <c r="I39" s="672"/>
-      <c r="J39" s="672"/>
-      <c r="K39" s="672"/>
-      <c r="L39" s="672"/>
-      <c r="M39" s="672"/>
-      <c r="N39" s="672"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="672"/>
-      <c r="B40" s="672"/>
-      <c r="C40" s="672"/>
-      <c r="D40" s="672"/>
-      <c r="E40" s="672"/>
-      <c r="F40" s="672"/>
-      <c r="G40" s="672"/>
-      <c r="H40" s="672"/>
-      <c r="I40" s="672"/>
-      <c r="J40" s="672"/>
-      <c r="K40" s="672"/>
-      <c r="L40" s="672"/>
-      <c r="M40" s="672"/>
-      <c r="N40" s="672"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="672"/>
-      <c r="B41" s="672"/>
-      <c r="C41" s="672"/>
-      <c r="D41" s="672"/>
-      <c r="E41" s="672"/>
-      <c r="F41" s="672"/>
-      <c r="G41" s="672"/>
-      <c r="H41" s="672"/>
-      <c r="I41" s="672"/>
-      <c r="J41" s="672"/>
-      <c r="K41" s="672"/>
-      <c r="L41" s="672"/>
-      <c r="M41" s="672"/>
-      <c r="N41" s="672"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="672"/>
-      <c r="B42" s="672"/>
-      <c r="C42" s="672"/>
-      <c r="D42" s="672"/>
-      <c r="E42" s="672"/>
-      <c r="F42" s="672"/>
-      <c r="G42" s="672"/>
-      <c r="H42" s="672"/>
-      <c r="I42" s="672"/>
-      <c r="J42" s="672"/>
-      <c r="K42" s="672"/>
-      <c r="L42" s="672"/>
-      <c r="M42" s="672"/>
-      <c r="N42" s="672"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="672"/>
-      <c r="B43" s="672"/>
-      <c r="C43" s="672"/>
-      <c r="D43" s="672"/>
-      <c r="E43" s="672"/>
-      <c r="F43" s="672"/>
-      <c r="G43" s="672"/>
-      <c r="H43" s="672"/>
-      <c r="I43" s="672"/>
-      <c r="J43" s="672"/>
-      <c r="K43" s="672"/>
-      <c r="L43" s="672"/>
-      <c r="M43" s="672"/>
-      <c r="N43" s="672"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="672"/>
-      <c r="B44" s="672"/>
-      <c r="C44" s="672"/>
-      <c r="D44" s="672"/>
-      <c r="E44" s="672"/>
-      <c r="F44" s="672"/>
-      <c r="G44" s="672"/>
-      <c r="H44" s="672"/>
-      <c r="I44" s="672"/>
-      <c r="J44" s="672"/>
-      <c r="K44" s="672"/>
-      <c r="L44" s="672"/>
-      <c r="M44" s="672"/>
-      <c r="N44" s="672"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="672"/>
-      <c r="B45" s="672"/>
-      <c r="C45" s="672"/>
-      <c r="D45" s="672"/>
-      <c r="E45" s="672"/>
-      <c r="F45" s="672"/>
-      <c r="G45" s="672"/>
-      <c r="H45" s="672"/>
-      <c r="I45" s="672"/>
-      <c r="J45" s="672"/>
-      <c r="K45" s="672"/>
-      <c r="L45" s="672"/>
-      <c r="M45" s="672"/>
-      <c r="N45" s="672"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="672"/>
-      <c r="B46" s="672"/>
-      <c r="C46" s="672"/>
-      <c r="D46" s="672"/>
-      <c r="E46" s="672"/>
-      <c r="F46" s="672"/>
-      <c r="G46" s="672"/>
-      <c r="H46" s="672"/>
-      <c r="I46" s="672"/>
-      <c r="J46" s="672"/>
-      <c r="K46" s="672"/>
-      <c r="L46" s="672"/>
-      <c r="M46" s="672"/>
-      <c r="N46" s="672"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="672"/>
-      <c r="B47" s="672"/>
-      <c r="C47" s="672"/>
-      <c r="D47" s="672"/>
-      <c r="E47" s="672"/>
-      <c r="F47" s="672"/>
-      <c r="G47" s="672"/>
-      <c r="H47" s="672"/>
-      <c r="I47" s="672"/>
-      <c r="J47" s="672"/>
-      <c r="K47" s="672"/>
-      <c r="L47" s="672"/>
-      <c r="M47" s="672"/>
-      <c r="N47" s="672"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="672"/>
-      <c r="B48" s="672"/>
-      <c r="C48" s="672"/>
-      <c r="D48" s="672"/>
-      <c r="E48" s="672"/>
-      <c r="F48" s="672"/>
-      <c r="G48" s="672"/>
-      <c r="H48" s="672"/>
-      <c r="I48" s="672"/>
-      <c r="J48" s="672"/>
-      <c r="K48" s="672"/>
-      <c r="L48" s="672"/>
-      <c r="M48" s="672"/>
-      <c r="N48" s="672"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="672"/>
-      <c r="B49" s="672"/>
-      <c r="C49" s="672"/>
-      <c r="D49" s="672"/>
-      <c r="E49" s="672"/>
-      <c r="F49" s="672"/>
-      <c r="G49" s="672"/>
-      <c r="H49" s="672"/>
-      <c r="I49" s="672"/>
-      <c r="J49" s="672"/>
-      <c r="K49" s="672"/>
-      <c r="L49" s="672"/>
-      <c r="M49" s="672"/>
-      <c r="N49" s="672"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="672"/>
-      <c r="B50" s="672"/>
-      <c r="C50" s="672"/>
-      <c r="D50" s="672"/>
-      <c r="E50" s="672"/>
-      <c r="F50" s="672"/>
-      <c r="G50" s="672"/>
-      <c r="H50" s="672"/>
-      <c r="I50" s="672"/>
-      <c r="J50" s="672"/>
-      <c r="K50" s="672"/>
-      <c r="L50" s="672"/>
-      <c r="M50" s="672"/>
-      <c r="N50" s="672"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="672"/>
-      <c r="B51" s="672"/>
-      <c r="C51" s="672"/>
-      <c r="D51" s="672"/>
-      <c r="E51" s="672"/>
-      <c r="F51" s="672"/>
-      <c r="G51" s="672"/>
-      <c r="H51" s="672"/>
-      <c r="I51" s="672"/>
-      <c r="J51" s="672"/>
-      <c r="K51" s="672"/>
-      <c r="L51" s="672"/>
-      <c r="M51" s="672"/>
-      <c r="N51" s="672"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="672"/>
-      <c r="B52" s="672"/>
-      <c r="C52" s="672"/>
-      <c r="D52" s="672"/>
-      <c r="E52" s="672"/>
-      <c r="F52" s="672"/>
-      <c r="G52" s="672"/>
-      <c r="H52" s="672"/>
-      <c r="I52" s="672"/>
-      <c r="J52" s="672"/>
-      <c r="K52" s="672"/>
-      <c r="L52" s="672"/>
-      <c r="M52" s="672"/>
-      <c r="N52" s="672"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="672"/>
-      <c r="B53" s="672"/>
-      <c r="C53" s="672"/>
-      <c r="D53" s="672"/>
-      <c r="E53" s="672"/>
-      <c r="F53" s="672"/>
-      <c r="G53" s="672"/>
-      <c r="H53" s="672"/>
-      <c r="I53" s="672"/>
-      <c r="J53" s="672"/>
-      <c r="K53" s="672"/>
-      <c r="L53" s="672"/>
-      <c r="M53" s="672"/>
-      <c r="N53" s="672"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="672"/>
-      <c r="B54" s="672"/>
-      <c r="C54" s="672"/>
-      <c r="D54" s="672"/>
-      <c r="E54" s="672"/>
-      <c r="F54" s="672"/>
-      <c r="G54" s="672"/>
-      <c r="H54" s="672"/>
-      <c r="I54" s="672"/>
-      <c r="J54" s="672"/>
-      <c r="K54" s="672"/>
-      <c r="L54" s="672"/>
-      <c r="M54" s="672"/>
-      <c r="N54" s="672"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="672"/>
-      <c r="B55" s="672"/>
-      <c r="C55" s="672"/>
-      <c r="D55" s="672"/>
-      <c r="E55" s="672"/>
-      <c r="F55" s="672"/>
-      <c r="G55" s="672"/>
-      <c r="H55" s="672"/>
-      <c r="I55" s="672"/>
-      <c r="J55" s="672"/>
-      <c r="K55" s="672"/>
-      <c r="L55" s="672"/>
-      <c r="M55" s="672"/>
-      <c r="N55" s="672"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="672"/>
-      <c r="B56" s="672"/>
-      <c r="C56" s="672"/>
-      <c r="D56" s="672"/>
-      <c r="E56" s="672"/>
-      <c r="F56" s="672"/>
-      <c r="G56" s="672"/>
-      <c r="H56" s="672"/>
-      <c r="I56" s="672"/>
-      <c r="J56" s="672"/>
-      <c r="K56" s="672"/>
-      <c r="L56" s="672"/>
-      <c r="M56" s="672"/>
-      <c r="N56" s="672"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="672"/>
-      <c r="B57" s="672"/>
-      <c r="C57" s="672"/>
-      <c r="D57" s="672"/>
-      <c r="E57" s="672"/>
-      <c r="F57" s="672"/>
-      <c r="G57" s="672"/>
-      <c r="H57" s="672"/>
-      <c r="I57" s="672"/>
-      <c r="J57" s="672"/>
-      <c r="K57" s="672"/>
-      <c r="L57" s="672"/>
-      <c r="M57" s="672"/>
-      <c r="N57" s="672"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="672"/>
-      <c r="B58" s="672"/>
-      <c r="C58" s="672"/>
-      <c r="D58" s="672"/>
-      <c r="E58" s="672"/>
-      <c r="F58" s="672"/>
-      <c r="G58" s="672"/>
-      <c r="H58" s="672"/>
-      <c r="I58" s="672"/>
-      <c r="J58" s="672"/>
-      <c r="K58" s="672"/>
-      <c r="L58" s="672"/>
-      <c r="M58" s="672"/>
-      <c r="N58" s="672"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="672"/>
-      <c r="B59" s="672"/>
-      <c r="C59" s="672"/>
-      <c r="D59" s="672"/>
-      <c r="E59" s="672"/>
-      <c r="F59" s="672"/>
-      <c r="G59" s="672"/>
-      <c r="H59" s="672"/>
-      <c r="I59" s="672"/>
-      <c r="J59" s="672"/>
-      <c r="K59" s="672"/>
-      <c r="L59" s="672"/>
-      <c r="M59" s="672"/>
-      <c r="N59" s="672"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="672"/>
-      <c r="B60" s="672"/>
-      <c r="C60" s="672"/>
-      <c r="D60" s="672"/>
-      <c r="E60" s="672"/>
-      <c r="F60" s="672"/>
-      <c r="G60" s="672"/>
-      <c r="H60" s="672"/>
-      <c r="I60" s="672"/>
-      <c r="J60" s="672"/>
-      <c r="K60" s="672"/>
-      <c r="L60" s="672"/>
-      <c r="M60" s="672"/>
-      <c r="N60" s="672"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="672"/>
-      <c r="B61" s="672"/>
-      <c r="C61" s="672"/>
-      <c r="D61" s="672"/>
-      <c r="E61" s="672"/>
-      <c r="F61" s="672"/>
-      <c r="G61" s="672"/>
-      <c r="H61" s="672"/>
-      <c r="I61" s="672"/>
-      <c r="J61" s="672"/>
-      <c r="K61" s="672"/>
-      <c r="L61" s="672"/>
-      <c r="M61" s="672"/>
-      <c r="N61" s="672"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="672"/>
-      <c r="B62" s="672"/>
-      <c r="C62" s="672"/>
-      <c r="D62" s="672"/>
-      <c r="E62" s="672"/>
-      <c r="F62" s="672"/>
-      <c r="G62" s="672"/>
-      <c r="H62" s="672"/>
-      <c r="I62" s="672"/>
-      <c r="J62" s="672"/>
-      <c r="K62" s="672"/>
-      <c r="L62" s="672"/>
-      <c r="M62" s="672"/>
-      <c r="N62" s="672"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="672"/>
-      <c r="B63" s="672"/>
-      <c r="C63" s="672"/>
-      <c r="D63" s="672"/>
-      <c r="E63" s="672"/>
-      <c r="F63" s="672"/>
-      <c r="G63" s="672"/>
-      <c r="H63" s="672"/>
-      <c r="I63" s="672"/>
-      <c r="J63" s="672"/>
-      <c r="K63" s="672"/>
-      <c r="L63" s="672"/>
-      <c r="M63" s="672"/>
-      <c r="N63" s="672"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="672"/>
-      <c r="B64" s="672"/>
-      <c r="C64" s="672"/>
-      <c r="D64" s="672"/>
-      <c r="E64" s="672"/>
-      <c r="F64" s="672"/>
-      <c r="G64" s="672"/>
-      <c r="H64" s="672"/>
-      <c r="I64" s="672"/>
-      <c r="J64" s="672"/>
-      <c r="K64" s="672"/>
-      <c r="L64" s="672"/>
-      <c r="M64" s="672"/>
-      <c r="N64" s="672"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="672"/>
-      <c r="B65" s="672"/>
-      <c r="C65" s="672"/>
-      <c r="D65" s="672"/>
-      <c r="E65" s="672"/>
-      <c r="F65" s="672"/>
-      <c r="G65" s="672"/>
-      <c r="H65" s="672"/>
-      <c r="I65" s="672"/>
-      <c r="J65" s="672"/>
-      <c r="K65" s="672"/>
-      <c r="L65" s="672"/>
-      <c r="M65" s="672"/>
-      <c r="N65" s="672"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="672"/>
-      <c r="B66" s="672"/>
-      <c r="C66" s="672"/>
-      <c r="D66" s="672"/>
-      <c r="E66" s="672"/>
-      <c r="F66" s="672"/>
-      <c r="G66" s="672"/>
-      <c r="H66" s="672"/>
-      <c r="I66" s="672"/>
-      <c r="J66" s="672"/>
-      <c r="K66" s="672"/>
-      <c r="L66" s="672"/>
-      <c r="M66" s="672"/>
-      <c r="N66" s="672"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="672"/>
-      <c r="B67" s="672"/>
-      <c r="C67" s="672"/>
-      <c r="D67" s="672"/>
-      <c r="E67" s="672"/>
-      <c r="F67" s="672"/>
-      <c r="G67" s="672"/>
-      <c r="H67" s="672"/>
-      <c r="I67" s="672"/>
-      <c r="J67" s="672"/>
-      <c r="K67" s="672"/>
-      <c r="L67" s="672"/>
-      <c r="M67" s="672"/>
-      <c r="N67" s="672"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="672"/>
-      <c r="B68" s="672"/>
-      <c r="C68" s="672"/>
-      <c r="D68" s="672"/>
-      <c r="E68" s="672"/>
-      <c r="F68" s="672"/>
-      <c r="G68" s="672"/>
-      <c r="H68" s="672"/>
-      <c r="I68" s="672"/>
-      <c r="J68" s="672"/>
-      <c r="K68" s="672"/>
-      <c r="L68" s="672"/>
-      <c r="M68" s="672"/>
-      <c r="N68" s="672"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="672"/>
-      <c r="B69" s="672"/>
-      <c r="C69" s="672"/>
-      <c r="D69" s="672"/>
-      <c r="E69" s="672"/>
-      <c r="F69" s="672"/>
-      <c r="G69" s="672"/>
-      <c r="H69" s="672"/>
-      <c r="I69" s="672"/>
-      <c r="J69" s="672"/>
-      <c r="K69" s="672"/>
-      <c r="L69" s="672"/>
-      <c r="M69" s="672"/>
-      <c r="N69" s="672"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="672"/>
-      <c r="B70" s="672"/>
-      <c r="C70" s="672"/>
-      <c r="D70" s="672"/>
-      <c r="E70" s="672"/>
-      <c r="F70" s="672"/>
-      <c r="G70" s="672"/>
-      <c r="H70" s="672"/>
-      <c r="I70" s="672"/>
-      <c r="J70" s="672"/>
-      <c r="K70" s="672"/>
-      <c r="L70" s="672"/>
-      <c r="M70" s="672"/>
-      <c r="N70" s="672"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="672"/>
-      <c r="B71" s="672"/>
-      <c r="C71" s="672"/>
-      <c r="D71" s="672"/>
-      <c r="E71" s="672"/>
-      <c r="F71" s="672"/>
-      <c r="G71" s="672"/>
-      <c r="H71" s="672"/>
-      <c r="I71" s="672"/>
-      <c r="J71" s="672"/>
-      <c r="K71" s="672"/>
-      <c r="L71" s="672"/>
-      <c r="M71" s="672"/>
-      <c r="N71" s="672"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="672"/>
-      <c r="B72" s="672"/>
-      <c r="C72" s="672"/>
-      <c r="D72" s="672"/>
-      <c r="E72" s="672"/>
-      <c r="F72" s="672"/>
-      <c r="G72" s="672"/>
-      <c r="H72" s="672"/>
-      <c r="I72" s="672"/>
-      <c r="J72" s="672"/>
-      <c r="K72" s="672"/>
-      <c r="L72" s="672"/>
-      <c r="M72" s="672"/>
-      <c r="N72" s="672"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="672"/>
-      <c r="B73" s="672"/>
-      <c r="C73" s="672"/>
-      <c r="D73" s="672"/>
-      <c r="E73" s="672"/>
-      <c r="F73" s="672"/>
-      <c r="G73" s="672"/>
-      <c r="H73" s="672"/>
-      <c r="I73" s="672"/>
-      <c r="J73" s="672"/>
-      <c r="K73" s="672"/>
-      <c r="L73" s="672"/>
-      <c r="M73" s="672"/>
-      <c r="N73" s="672"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="672"/>
-      <c r="B74" s="672"/>
-      <c r="C74" s="672"/>
-      <c r="D74" s="672"/>
-      <c r="E74" s="672"/>
-      <c r="F74" s="672"/>
-      <c r="G74" s="672"/>
-      <c r="H74" s="672"/>
-      <c r="I74" s="672"/>
-      <c r="J74" s="672"/>
-      <c r="K74" s="672"/>
-      <c r="L74" s="672"/>
-      <c r="M74" s="672"/>
-      <c r="N74" s="672"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="672"/>
-      <c r="B75" s="672"/>
-      <c r="C75" s="672"/>
-      <c r="D75" s="672"/>
-      <c r="E75" s="672"/>
-      <c r="F75" s="672"/>
-      <c r="G75" s="672"/>
-      <c r="H75" s="672"/>
-      <c r="I75" s="672"/>
-      <c r="J75" s="672"/>
-      <c r="K75" s="672"/>
-      <c r="L75" s="672"/>
-      <c r="M75" s="672"/>
-      <c r="N75" s="672"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="672"/>
-      <c r="B76" s="672"/>
-      <c r="C76" s="672"/>
-      <c r="D76" s="672"/>
-      <c r="E76" s="672"/>
-      <c r="F76" s="672"/>
-      <c r="G76" s="672"/>
-      <c r="H76" s="672"/>
-      <c r="I76" s="672"/>
-      <c r="J76" s="672"/>
-      <c r="K76" s="672"/>
-      <c r="L76" s="672"/>
-      <c r="M76" s="672"/>
-      <c r="N76" s="672"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="672"/>
-      <c r="B77" s="672"/>
-      <c r="C77" s="672"/>
-      <c r="D77" s="672"/>
-      <c r="E77" s="672"/>
-      <c r="F77" s="672"/>
-      <c r="G77" s="672"/>
-      <c r="H77" s="672"/>
-      <c r="I77" s="672"/>
-      <c r="J77" s="672"/>
-      <c r="K77" s="672"/>
-      <c r="L77" s="672"/>
-      <c r="M77" s="672"/>
-      <c r="N77" s="672"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="672"/>
-      <c r="B78" s="672"/>
-      <c r="C78" s="672"/>
-      <c r="D78" s="672"/>
-      <c r="E78" s="672"/>
-      <c r="F78" s="672"/>
-      <c r="G78" s="672"/>
-      <c r="H78" s="672"/>
-      <c r="I78" s="672"/>
-      <c r="J78" s="672"/>
-      <c r="K78" s="672"/>
-      <c r="L78" s="672"/>
-      <c r="M78" s="672"/>
-      <c r="N78" s="672"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="672"/>
-      <c r="B79" s="672"/>
-      <c r="C79" s="672"/>
-      <c r="D79" s="672"/>
-      <c r="E79" s="672"/>
-      <c r="F79" s="672"/>
-      <c r="G79" s="672"/>
-      <c r="H79" s="672"/>
-      <c r="I79" s="672"/>
-      <c r="J79" s="672"/>
-      <c r="K79" s="672"/>
-      <c r="L79" s="672"/>
-      <c r="M79" s="672"/>
-      <c r="N79" s="672"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="672"/>
-      <c r="B80" s="672"/>
-      <c r="C80" s="672"/>
-      <c r="D80" s="672"/>
-      <c r="E80" s="672"/>
-      <c r="F80" s="672"/>
-      <c r="G80" s="672"/>
-      <c r="H80" s="672"/>
-      <c r="I80" s="672"/>
-      <c r="J80" s="672"/>
-      <c r="K80" s="672"/>
-      <c r="L80" s="672"/>
-      <c r="M80" s="672"/>
-      <c r="N80" s="672"/>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="672"/>
-      <c r="B81" s="672"/>
-      <c r="C81" s="672"/>
-      <c r="D81" s="672"/>
-      <c r="E81" s="672"/>
-      <c r="F81" s="672"/>
-      <c r="G81" s="672"/>
-      <c r="H81" s="672"/>
-      <c r="I81" s="672"/>
-      <c r="J81" s="672"/>
-      <c r="K81" s="672"/>
-      <c r="L81" s="672"/>
-      <c r="M81" s="672"/>
-      <c r="N81" s="672"/>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="672"/>
-      <c r="B82" s="672"/>
-      <c r="C82" s="672"/>
-      <c r="D82" s="672"/>
-      <c r="E82" s="672"/>
-      <c r="F82" s="672"/>
-      <c r="G82" s="672"/>
-      <c r="H82" s="672"/>
-      <c r="I82" s="672"/>
-      <c r="J82" s="672"/>
-      <c r="K82" s="672"/>
-      <c r="L82" s="672"/>
-      <c r="M82" s="672"/>
-      <c r="N82" s="672"/>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="672"/>
-      <c r="B83" s="672"/>
-      <c r="C83" s="672"/>
-      <c r="D83" s="672"/>
-      <c r="E83" s="672"/>
-      <c r="F83" s="672"/>
-      <c r="G83" s="672"/>
-      <c r="H83" s="672"/>
-      <c r="I83" s="672"/>
-      <c r="J83" s="672"/>
-      <c r="K83" s="672"/>
-      <c r="L83" s="672"/>
-      <c r="M83" s="672"/>
-      <c r="N83" s="672"/>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="672"/>
-      <c r="B84" s="672"/>
-      <c r="C84" s="672"/>
-      <c r="D84" s="672"/>
-      <c r="E84" s="672"/>
-      <c r="F84" s="672"/>
-      <c r="G84" s="672"/>
-      <c r="H84" s="672"/>
-      <c r="I84" s="672"/>
-      <c r="J84" s="672"/>
-      <c r="K84" s="672"/>
-      <c r="L84" s="672"/>
-      <c r="M84" s="672"/>
-      <c r="N84" s="672"/>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="672"/>
-      <c r="B85" s="672"/>
-      <c r="C85" s="672"/>
-      <c r="D85" s="672"/>
-      <c r="E85" s="672"/>
-      <c r="F85" s="672"/>
-      <c r="G85" s="672"/>
-      <c r="H85" s="672"/>
-      <c r="I85" s="672"/>
-      <c r="J85" s="672"/>
-      <c r="K85" s="672"/>
-      <c r="L85" s="672"/>
-      <c r="M85" s="672"/>
-      <c r="N85" s="672"/>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="672"/>
-      <c r="B86" s="672"/>
-      <c r="C86" s="672"/>
-      <c r="D86" s="672"/>
-      <c r="E86" s="672"/>
-      <c r="F86" s="672"/>
-      <c r="G86" s="672"/>
-      <c r="H86" s="672"/>
-      <c r="I86" s="672"/>
-      <c r="J86" s="672"/>
-      <c r="K86" s="672"/>
-      <c r="L86" s="672"/>
-      <c r="M86" s="672"/>
-      <c r="N86" s="672"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N86"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -49941,36 +48441,36 @@
       <c r="C1" s="363"/>
       <c r="D1" s="363"/>
       <c r="E1" s="363"/>
-      <c r="F1" s="680" t="s">
+      <c r="F1" s="664" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="681"/>
-      <c r="H1" s="682"/>
-      <c r="I1" s="682"/>
-      <c r="J1" s="682"/>
-      <c r="K1" s="683"/>
+      <c r="G1" s="665"/>
+      <c r="H1" s="666"/>
+      <c r="I1" s="666"/>
+      <c r="J1" s="666"/>
+      <c r="K1" s="667"/>
       <c r="L1" s="363"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="684"/>
-      <c r="B2" s="684"/>
-      <c r="C2" s="684"/>
-      <c r="D2" s="684"/>
-      <c r="E2" s="684"/>
-      <c r="F2" s="684"/>
+      <c r="A2" s="668"/>
+      <c r="B2" s="668"/>
+      <c r="C2" s="668"/>
+      <c r="D2" s="668"/>
+      <c r="E2" s="668"/>
+      <c r="F2" s="668"/>
       <c r="G2" s="364"/>
-      <c r="H2" s="685"/>
-      <c r="I2" s="685"/>
-      <c r="J2" s="685"/>
-      <c r="K2" s="685"/>
+      <c r="H2" s="669"/>
+      <c r="I2" s="669"/>
+      <c r="J2" s="669"/>
+      <c r="K2" s="669"/>
       <c r="L2" s="363"/>
-      <c r="N2" s="673" t="s">
+      <c r="N2" s="657" t="s">
         <v>307</v>
       </c>
-      <c r="O2" s="674"/>
-      <c r="P2" s="674"/>
-      <c r="Q2" s="674"/>
-      <c r="R2" s="674"/>
+      <c r="O2" s="658"/>
+      <c r="P2" s="658"/>
+      <c r="Q2" s="658"/>
+      <c r="R2" s="658"/>
     </row>
     <row r="3" spans="1:18" s="369" customFormat="1" ht="40.5" thickTop="1" thickBot="1">
       <c r="A3" s="365" t="s">
@@ -50020,10 +48520,10 @@
       <c r="M3" s="427" t="s">
         <v>169</v>
       </c>
-      <c r="Q3" s="675" t="s">
+      <c r="Q3" s="659" t="s">
         <v>170</v>
       </c>
-      <c r="R3" s="676" t="s">
+      <c r="R3" s="660" t="s">
         <v>171</v>
       </c>
     </row>
@@ -50062,8 +48562,8 @@
       <c r="P4" s="375" t="s">
         <v>166</v>
       </c>
-      <c r="Q4" s="675"/>
-      <c r="R4" s="677"/>
+      <c r="Q4" s="659"/>
+      <c r="R4" s="661"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="421"/>
@@ -50568,14 +49068,14 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickTop="1">
-      <c r="A19" s="686" t="str">
+      <c r="A19" s="670" t="str">
         <f>IF(COUNTA(A4:F18)/6&lt;&gt;COUNTA(A4:A18),"Error: Data Entry is Incomplete!!!","Instructions: Finish selections or assess resulting values.")</f>
         <v>Instructions: Finish selections or assess resulting values.</v>
       </c>
-      <c r="B19" s="687"/>
-      <c r="C19" s="687"/>
-      <c r="D19" s="687"/>
-      <c r="E19" s="688"/>
+      <c r="B19" s="671"/>
+      <c r="C19" s="671"/>
+      <c r="D19" s="671"/>
+      <c r="E19" s="672"/>
       <c r="F19" s="387"/>
       <c r="G19" s="388"/>
       <c r="H19" s="388"/>
@@ -50654,26 +49154,26 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="689" t="s">
+      <c r="A22" s="673" t="s">
         <v>220</v>
       </c>
-      <c r="B22" s="690"/>
-      <c r="C22" s="690"/>
-      <c r="D22" s="690"/>
-      <c r="E22" s="690"/>
-      <c r="F22" s="690"/>
-      <c r="G22" s="690"/>
-      <c r="H22" s="690"/>
-      <c r="I22" s="691"/>
+      <c r="B22" s="674"/>
+      <c r="C22" s="674"/>
+      <c r="D22" s="674"/>
+      <c r="E22" s="674"/>
+      <c r="F22" s="674"/>
+      <c r="G22" s="674"/>
+      <c r="H22" s="674"/>
+      <c r="I22" s="675"/>
       <c r="J22" s="402">
         <f>SQRT(SUMSQ(J4:J18))</f>
         <v>0</v>
       </c>
-      <c r="K22" s="692" t="str">
+      <c r="K22" s="676" t="str">
         <f>IF(K19="Finish selections.","Instructions: This value is not final.","Instructions: Assess data entry and values before reporting rounded result.")</f>
         <v>Instructions: Assess data entry and values before reporting rounded result.</v>
       </c>
-      <c r="L22" s="693"/>
+      <c r="L22" s="677"/>
       <c r="M22" s="399" t="str">
         <f>IF(J22^4=0,"",J22^4)</f>
         <v/>
@@ -50686,23 +49186,23 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="696" t="s">
+      <c r="A23" s="680" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="697"/>
-      <c r="C23" s="697"/>
-      <c r="D23" s="697"/>
-      <c r="E23" s="697"/>
-      <c r="F23" s="697"/>
-      <c r="G23" s="697"/>
-      <c r="H23" s="697"/>
-      <c r="I23" s="697"/>
+      <c r="B23" s="681"/>
+      <c r="C23" s="681"/>
+      <c r="D23" s="681"/>
+      <c r="E23" s="681"/>
+      <c r="F23" s="681"/>
+      <c r="G23" s="681"/>
+      <c r="H23" s="681"/>
+      <c r="I23" s="681"/>
       <c r="J23" s="402" t="str">
         <f>IF(E20="Entries incomplete.","TBD",IF(E20&gt;0,ROUND(TINV(0.0455,MAX(E20:E21)),2),"TBD"))</f>
         <v>TBD</v>
       </c>
-      <c r="K23" s="694"/>
-      <c r="L23" s="695"/>
+      <c r="K23" s="678"/>
+      <c r="L23" s="679"/>
       <c r="M23" s="374"/>
       <c r="Q23" s="361" t="s">
         <v>221</v>
@@ -50712,17 +49212,17 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="696" t="s">
+      <c r="A24" s="680" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="697"/>
-      <c r="C24" s="697"/>
-      <c r="D24" s="697"/>
-      <c r="E24" s="697"/>
-      <c r="F24" s="697"/>
-      <c r="G24" s="697"/>
-      <c r="H24" s="697"/>
-      <c r="I24" s="697"/>
+      <c r="B24" s="681"/>
+      <c r="C24" s="681"/>
+      <c r="D24" s="681"/>
+      <c r="E24" s="681"/>
+      <c r="F24" s="681"/>
+      <c r="G24" s="681"/>
+      <c r="H24" s="681"/>
+      <c r="I24" s="681"/>
       <c r="J24" s="402" t="str">
         <f>IF(J23="TBD","TBD",J22*J23)</f>
         <v>TBD</v>
@@ -50741,17 +49241,17 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A25" s="678" t="s">
+      <c r="A25" s="662" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="679"/>
-      <c r="C25" s="679"/>
-      <c r="D25" s="679"/>
-      <c r="E25" s="679"/>
-      <c r="F25" s="679"/>
-      <c r="G25" s="679"/>
-      <c r="H25" s="679"/>
-      <c r="I25" s="679"/>
+      <c r="B25" s="663"/>
+      <c r="C25" s="663"/>
+      <c r="D25" s="663"/>
+      <c r="E25" s="663"/>
+      <c r="F25" s="663"/>
+      <c r="G25" s="663"/>
+      <c r="H25" s="663"/>
+      <c r="I25" s="663"/>
       <c r="J25" s="405" t="str">
         <f>IF(J23="TBD","TBD",IF(J24&lt;&gt;0,FIXED(J24,2-1-INT(LOG10(ABS(J24)))),"TBD"))</f>
         <v>TBD</v>
